--- a/projecting/cards_doors.xlsx
+++ b/projecting/cards_doors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="340">
   <si>
     <t>Pictures/Munchkin_game_cover.jpg</t>
   </si>
@@ -131,9 +131,6 @@
     <t>3872 Orcs</t>
   </si>
   <si>
-    <t>Mage with swrod</t>
-  </si>
-  <si>
     <t>Large Angry Chiken</t>
   </si>
   <si>
@@ -650,12 +647,18 @@
     <t>In a brown skirt with  dagger in left hand</t>
   </si>
   <si>
+    <t>Elf</t>
+  </si>
+  <si>
     <t>Elf_4</t>
   </si>
   <si>
     <t>Girl with Golden hair and green dress</t>
   </si>
   <si>
+    <t>Cleric</t>
+  </si>
+  <si>
     <t>Cleric_4</t>
   </si>
   <si>
@@ -833,6 +836,9 @@
     <t>Bad Ass</t>
   </si>
   <si>
+    <t>Undead</t>
+  </si>
+  <si>
     <t>Undead_2</t>
   </si>
   <si>
@@ -963,6 +969,81 @@
   </si>
   <si>
     <t>ClericalErrors</t>
+  </si>
+  <si>
+    <t>CardId</t>
+  </si>
+  <si>
+    <t>Path to File</t>
+  </si>
+  <si>
+    <t>CardName</t>
+  </si>
+  <si>
+    <t>AddOn</t>
+  </si>
+  <si>
+    <t>Picture's comment</t>
+  </si>
+  <si>
+    <t>CardType</t>
+  </si>
+  <si>
+    <t>Monsters' level</t>
+  </si>
+  <si>
+    <t>StrongWeakAgainst</t>
+  </si>
+  <si>
+    <t>FromHell</t>
+  </si>
+  <si>
+    <t>Don't_fight_with</t>
+  </si>
+  <si>
+    <t>Don't_fight_untill_level</t>
+  </si>
+  <si>
+    <t>Special_Mechanics_Against</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>noone</t>
+  </si>
+  <si>
+    <t>Elf_6</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>Dwarf_6</t>
+  </si>
+  <si>
+    <t>Mage with sword</t>
+  </si>
+  <si>
+    <t>Wizard_6</t>
+  </si>
+  <si>
+    <t>Warrior_6</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Halfling|Dwarf_3</t>
   </si>
 </sst>
 </file>
@@ -1318,2482 +1399,3396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1"/>
     <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="18.28515625" style="1"/>
+    <col min="3" max="11" width="18.28515625" style="1"/>
+    <col min="12" max="12" width="22" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f>A1+1</f>
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G25" s="1">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G32" s="1">
+        <v>12</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" s="1">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" s="1">
+        <v>8</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" s="1">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G52" s="1">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G56" s="1">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G57" s="1">
+        <v>6</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G58" s="1">
+        <v>18</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L58" s="1">
+        <v>4</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G65" s="1">
+        <v>8</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <f t="shared" ref="A68:A131" si="1">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G69" s="1">
+        <v>12</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
+      <c r="D71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G79" s="1">
+        <v>10</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G80" s="1">
+        <v>5</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G84" s="1">
+        <v>16</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L84" s="1">
+        <v>4</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G87" s="1">
+        <v>20</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L87" s="1">
+        <v>6</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" s="1">
+        <v>18</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L89" s="1">
+        <v>5</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G95" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <f t="shared" ref="A67:A130" si="1">A66+1</f>
-        <v>67</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="H95" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="D100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <f>A103+1</f>
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <f>A104+1</f>
         <v>104</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="B105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <f t="shared" ref="A131:A159" si="2">A130+1</f>
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <f t="shared" ref="A132:A160" si="2">A131+1</f>
         <v>131</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
       <c r="B132" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="2"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>212</v>
@@ -3802,7 +4797,7 @@
     <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>0</v>
@@ -3811,13 +4806,16 @@
         <v>214</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>0</v>
@@ -3826,13 +4824,13 @@
         <v>215</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>0</v>
@@ -3841,13 +4839,13 @@
         <v>216</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>0</v>
@@ -3856,13 +4854,13 @@
         <v>217</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>0</v>
@@ -3871,13 +4869,13 @@
         <v>218</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>0</v>
@@ -3886,31 +4884,31 @@
         <v>219</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E159" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <f>A159+1</f>
-        <v>160</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f t="shared" ref="A161:A224" si="3">A160+1</f>
-        <v>161</v>
+        <f>A160+1</f>
+        <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>0</v>
@@ -3919,31 +4917,31 @@
         <v>222</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" si="3"/>
-        <v>162</v>
+        <f t="shared" ref="A162:A225" si="3">A161+1</f>
+        <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>0</v>
@@ -3952,13 +4950,13 @@
         <v>225</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="3"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>0</v>
@@ -3967,13 +4965,13 @@
         <v>226</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f t="shared" si="3"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>0</v>
@@ -3982,13 +4980,13 @@
         <v>227</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="3"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
@@ -3997,13 +4995,13 @@
         <v>228</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>0</v>
@@ -4012,49 +5010,49 @@
         <v>229</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E167" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <f t="shared" si="3"/>
-        <v>168</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <f t="shared" si="3"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>0</v>
@@ -4063,13 +5061,13 @@
         <v>234</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <f t="shared" si="3"/>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>0</v>
@@ -4078,13 +5076,13 @@
         <v>235</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>0</v>
@@ -4093,31 +5091,31 @@
         <v>236</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>0</v>
@@ -4126,67 +5124,67 @@
         <v>239</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E174" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E176" s="1" t="s">
+      <c r="B177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <f t="shared" si="3"/>
-        <v>177</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>0</v>
@@ -4195,13 +5193,13 @@
         <v>246</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>0</v>
@@ -4210,13 +5208,13 @@
         <v>247</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>0</v>
@@ -4225,13 +5223,13 @@
         <v>248</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>0</v>
@@ -4240,13 +5238,13 @@
         <v>249</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>0</v>
@@ -4255,31 +5253,31 @@
         <v>250</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>0</v>
@@ -4288,31 +5286,31 @@
         <v>253</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>0</v>
@@ -4321,13 +5319,13 @@
         <v>256</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>0</v>
@@ -4336,13 +5334,13 @@
         <v>257</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>0</v>
@@ -4351,13 +5349,13 @@
         <v>258</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <f t="shared" si="3"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>0</v>
@@ -4366,13 +5364,13 @@
         <v>259</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>0</v>
@@ -4381,13 +5379,13 @@
         <v>260</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f t="shared" si="3"/>
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>0</v>
@@ -4396,13 +5394,13 @@
         <v>261</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>0</v>
@@ -4411,13 +5409,13 @@
         <v>262</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <f t="shared" si="3"/>
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>0</v>
@@ -4426,13 +5424,13 @@
         <v>263</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>0</v>
@@ -4441,13 +5439,13 @@
         <v>264</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>0</v>
@@ -4456,31 +5454,31 @@
         <v>265</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>0</v>
@@ -4489,13 +5487,13 @@
         <v>268</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>0</v>
@@ -4504,16 +5502,13 @@
         <v>269</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>0</v>
@@ -4522,16 +5517,16 @@
         <v>271</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>0</v>
@@ -4540,16 +5535,16 @@
         <v>273</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>0</v>
@@ -4558,16 +5553,16 @@
         <v>275</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>0</v>
@@ -4576,31 +5571,31 @@
         <v>277</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <f t="shared" si="3"/>
         <v>203</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <f t="shared" si="3"/>
-        <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>0</v>
@@ -4609,31 +5604,31 @@
         <v>280</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>0</v>
@@ -4642,31 +5637,31 @@
         <v>283</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <f t="shared" si="3"/>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>0</v>
@@ -4675,31 +5670,31 @@
         <v>286</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>0</v>
@@ -4708,7 +5703,7 @@
         <v>289</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>290</v>
@@ -4717,7 +5712,7 @@
     <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>0</v>
@@ -4726,7 +5721,7 @@
         <v>291</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>292</v>
@@ -4735,7 +5730,7 @@
     <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>0</v>
@@ -4744,7 +5739,7 @@
         <v>293</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>294</v>
@@ -4753,7 +5748,7 @@
     <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>0</v>
@@ -4762,76 +5757,76 @@
         <v>295</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <f t="shared" si="3"/>
-        <v>215</v>
-      </c>
       <c r="B215" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+      <c r="B217" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <f t="shared" si="3"/>
         <v>217</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <f t="shared" si="3"/>
-        <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>0</v>
@@ -4840,31 +5835,31 @@
         <v>301</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>0</v>
@@ -4873,31 +5868,31 @@
         <v>304</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <f t="shared" si="3"/>
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>0</v>
@@ -4906,31 +5901,31 @@
         <v>307</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <f t="shared" si="3"/>
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>0</v>
@@ -4939,22 +5934,40 @@
         <v>310</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <f t="shared" ref="A225" si="4">A224+1</f>
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <f t="shared" ref="A226" si="4">A225+1</f>
         <v>225</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>312</v>
+      <c r="B226" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/projecting/cards_doors.xlsx
+++ b/projecting/cards_doors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="351">
   <si>
     <t>Pictures/Munchkin_game_cover.jpg</t>
   </si>
@@ -446,9 +446,6 @@
     <t>Cat Girl</t>
   </si>
   <si>
-    <t>Cursed Thingy</t>
-  </si>
-  <si>
     <t>Sticked to head helmet</t>
   </si>
   <si>
@@ -518,9 +515,6 @@
     <t>Pinata</t>
   </si>
   <si>
-    <t>Crawling Hands</t>
-  </si>
-  <si>
     <t>Violet mage with a powerfull yellow blast to the right</t>
   </si>
   <si>
@@ -581,6 +575,9 @@
     <t>Giant Skunk</t>
   </si>
   <si>
+    <t>Halfling</t>
+  </si>
+  <si>
     <t>Halfling_4</t>
   </si>
   <si>
@@ -1044,6 +1041,42 @@
   </si>
   <si>
     <t>Halfling|Dwarf_3</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>Cursed Thingy_1</t>
+  </si>
+  <si>
+    <t>Human|Elf_5</t>
+  </si>
+  <si>
+    <t>Elf_-5</t>
+  </si>
+  <si>
+    <t>Ork</t>
+  </si>
+  <si>
+    <t>Dwarf_4==Woman_2==Wizard_-3==Saturday_-2</t>
+  </si>
+  <si>
+    <t>Dwarf|Wizard_3</t>
+  </si>
+  <si>
+    <t>Crawling Hand</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Human_5</t>
+  </si>
+  <si>
+    <t>Wizard|Thief_5</t>
+  </si>
+  <si>
+    <t>Amplifier</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView tabSelected="1" topLeftCell="B214" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,1359 +1450,1137 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="e">
+        <f>A1+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="e">
         <f>A2+1</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
-        <v>3</v>
+      <c r="A4" s="1" t="e">
+        <f>A3+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
+      <c r="F4" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="A5" s="1" t="e">
+        <f>A4+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" s="1">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="A6" s="1" t="e">
+        <f>A5+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="A7" s="1" t="e">
+        <f>A6+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G7" s="1">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="A8" s="1" t="e">
+        <f>A7+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="e">
+        <f>A8+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="A10" s="1" t="e">
+        <f>A9+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>94</v>
+      <c r="F11" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>A11+1</f>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>A12+1</f>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>A13+1</f>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>A14+1</f>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>A16+1</f>
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>A17+1</f>
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>A18+1</f>
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>A19+1</f>
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f>A20+1</f>
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>A21+1</f>
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>A22+1</f>
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>A23+1</f>
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>A24+1</f>
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>A25+1</f>
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f>A26+1</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>A27+1</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>A28+1</f>
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f>A29+1</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f>A30+1</f>
         <v>21</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f>A31+1</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G24" s="1">
-        <v>6</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G25" s="1">
-        <v>16</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L25" s="1">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G27" s="1">
-        <v>6</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G29" s="1">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G32" s="1">
-        <v>12</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>A32+1</f>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G33" s="1">
-        <v>14</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>A33+1</f>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G34" s="1">
-        <v>10</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>A34+1</f>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>A35+1</f>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>A36+1</f>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G37" s="1">
-        <v>8</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f>A37+1</f>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G38" s="1">
-        <v>14</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f>A38+1</f>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G39" s="1">
-        <v>4</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f>A39+1</f>
+        <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>45</v>
+      <c r="F40" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>A40+1</f>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f>A41+1</f>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>A42+1</f>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f>A43+1</f>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f>A44+1</f>
+        <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>312</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>53</v>
+        <v>313</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>A45+1</f>
+        <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>329</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f>A46+1</f>
+        <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>56</v>
+      <c r="F47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="1">
+        <v>6</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f>A47+1</f>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>58</v>
+      <c r="F48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" s="1">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>A48+1</f>
+        <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f>A49+1</f>
+        <v>40</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>63</v>
+      <c r="F50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>A50+1</f>
+        <v>41</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L51" s="1">
         <v>0</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>A51+1</f>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G52" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
@@ -2780,3197 +2591,4280 @@
     </row>
     <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f>A52+1</f>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>67</v>
+      <c r="F53" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53" s="1">
+        <v>16</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L53" s="1">
+        <v>4</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f>A53+1</f>
+        <v>44</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>207</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>A54+1</f>
+        <v>45</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G55" s="1">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>A55+1</f>
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G56" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L56" s="1">
         <v>0</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>A56+1</f>
+        <v>47</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G57" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L57" s="1">
         <v>0</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f>A57+1</f>
+        <v>48</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G58" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L58" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>207</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f>A58+1</f>
+        <v>49</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>74</v>
+      <c r="F59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="1">
+        <v>10</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>A59+1</f>
+        <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>76</v>
+      <c r="F60" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="1">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>A60+1</f>
+        <v>51</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G61" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J61" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f>A61+1</f>
+        <v>52</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>79</v>
+      <c r="F62" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f>A62+1</f>
+        <v>53</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f>A63+1</f>
+        <v>54</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>82</v>
+      <c r="F64" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <f t="shared" si="0"/>
+        <f>A64+1</f>
+        <v>55</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <f>A65+1</f>
+        <v>56</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="1">
         <v>8</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>85</v>
+      <c r="H66" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f>A66+1</f>
+        <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f t="shared" ref="A68:A131" si="1">A67+1</f>
-        <v>67</v>
+        <f>A67+1</f>
+        <v>58</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>89</v>
+      <c r="F68" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G68" s="1">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f>A68+1</f>
+        <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G69" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>210</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f>A69+1</f>
+        <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>92</v>
+      <c r="F70" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70" s="1">
+        <v>18</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L70" s="1">
+        <v>4</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>A70+1</f>
+        <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>96</v>
+      <c r="F71" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f>A71+1</f>
+        <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G72" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f>A72+1</f>
+        <v>63</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>99</v>
+      <c r="F73" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G73" s="1">
+        <v>12</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f>A73+1</f>
+        <v>64</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>101</v>
+      <c r="F74" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f>A74+1</f>
+        <v>65</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G75" s="1">
+        <v>10</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>A75+1</f>
+        <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>105</v>
+      <c r="F76" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G76" s="1">
+        <v>5</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f>A76+1</f>
+        <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>107</v>
+      <c r="F77" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f>A77+1</f>
+        <v>68</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f>A78+1</f>
+        <v>69</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G79" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L79" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f>A79+1</f>
+        <v>70</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G80" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>230</v>
+        <v>328</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L80" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>A80+1</f>
+        <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G81" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L81" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f>A81+1</f>
+        <v>72</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G82" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <f>A82+1</f>
+        <v>73</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G83" s="1">
+        <v>15</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L83" s="1">
+        <v>3</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <f>A83+1</f>
+        <v>74</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G84" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L84" s="1">
-        <v>4</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f>A84+1</f>
+        <v>75</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G85" s="1">
+        <v>9</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f>A85+1</f>
+        <v>76</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G86" s="1">
+        <v>5</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f>A86+1</f>
+        <v>77</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G87" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L87" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
+        <f>A87+1</f>
+        <v>78</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88" s="1">
+        <v>13</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <f>A88+1</f>
+        <v>79</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G89" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J89" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M89" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L89" s="1">
-        <v>5</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <f>A89+1</f>
+        <v>80</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G90" s="1">
+        <v>13</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>A90+1</f>
+        <v>81</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <f>A91+1</f>
+        <v>82</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G92" s="1">
+        <v>5</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <f>A92+1</f>
+        <v>83</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G93" s="1">
+        <v>11</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <f>A93+1</f>
+        <v>84</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G94" s="1">
+        <v>11</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L94" s="1">
+        <v>3</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <f t="shared" si="1"/>
-        <v>94</v>
+        <f>A94+1</f>
+        <v>85</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G95" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L95" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>A95+1</f>
+        <v>86</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G96" s="1">
+        <v>17</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f>A96+1</f>
+        <v>87</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G97" s="1">
+        <v>5</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <f t="shared" si="1"/>
-        <v>97</v>
+        <f>A97+1</f>
+        <v>88</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F98" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G98" s="1">
+        <v>9</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
+        <f>A98+1</f>
+        <v>89</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F99" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G99" s="1">
+        <v>9</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <f>A99+1</f>
+        <v>90</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F100" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G100" s="1">
+        <v>15</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L100" s="1">
+        <v>3</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>A100+1</f>
+        <v>91</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F101" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <f t="shared" si="1"/>
-        <v>101</v>
+        <f>A101+1</f>
+        <v>92</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F102" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G102" s="1">
+        <v>13</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <f>A102+1</f>
+        <v>93</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F103" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G103" s="1">
+        <v>7</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <f t="shared" si="1"/>
-        <v>103</v>
+        <f>A103+1</f>
+        <v>94</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F104" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G104" s="1">
+        <v>5</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f>A104+1</f>
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F105" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G105" s="1">
+        <v>7</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <f>A105+1</f>
+        <v>96</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F106" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G106" s="1">
+        <v>11</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <f t="shared" si="1"/>
-        <v>106</v>
+        <f>A106+1</f>
+        <v>97</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F107" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G107" s="1">
+        <v>15</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <f t="shared" si="1"/>
+        <f>A107+1</f>
+        <v>98</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <f>A108+1</f>
+        <v>99</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <f>A109+1</f>
+        <v>100</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <f>A110+1</f>
+        <v>101</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <f>A111+1</f>
+        <v>102</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <f>A112+1</f>
+        <v>103</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <f>A113+1</f>
+        <v>104</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <f>A114+1</f>
+        <v>105</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <f>A115+1</f>
+        <v>106</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <f>A116+1</f>
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <f t="shared" si="1"/>
+      <c r="B117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <f>A117+1</f>
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <f t="shared" si="1"/>
+      <c r="B118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <f>A118+1</f>
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <f t="shared" si="1"/>
+      <c r="B119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <f>A119+1</f>
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <f t="shared" si="1"/>
+      <c r="B120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <f>A120+1</f>
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <f t="shared" si="1"/>
+      <c r="B121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <f>A121+1</f>
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <f t="shared" si="1"/>
+      <c r="B122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <f>A122+1</f>
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <f t="shared" si="1"/>
+      <c r="B123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <f>A123+1</f>
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <f t="shared" si="1"/>
+      <c r="B124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <f>A124+1</f>
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <f t="shared" si="1"/>
+      <c r="B125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <f>A125+1</f>
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <f t="shared" si="1"/>
+      <c r="B126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <f>A126+1</f>
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <f t="shared" si="1"/>
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <f>A127+1</f>
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <f t="shared" si="1"/>
+      <c r="B128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <f>A128+1</f>
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <f t="shared" si="1"/>
+      <c r="B129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <f>A129+1</f>
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <f t="shared" si="1"/>
+      <c r="B130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <f>A130+1</f>
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <f t="shared" si="1"/>
+      <c r="B131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <f>A131+1</f>
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <f t="shared" si="1"/>
+      <c r="B132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <f>A132+1</f>
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <f t="shared" si="1"/>
+      <c r="B133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <f>A133+1</f>
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <f t="shared" ref="A132:A160" si="2">A131+1</f>
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
       <c r="B134" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F134" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G134" s="1">
+        <v>9</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <f t="shared" si="2"/>
-        <v>134</v>
+        <f>A134+1</f>
+        <v>125</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F135" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H135" s="1">
+        <v>7</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <f>A135+1</f>
+        <v>126</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <f>A136+1</f>
+        <v>127</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <f>A137+1</f>
+        <v>128</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <f>A138+1</f>
+        <v>129</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <f>A139+1</f>
+        <v>130</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <f>A140+1</f>
+        <v>131</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <f>A141+1</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
       <c r="B142" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <f t="shared" si="2"/>
-        <v>142</v>
+        <f>A142+1</f>
+        <v>133</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <f t="shared" si="2"/>
-        <v>143</v>
+        <f>A143+1</f>
+        <v>134</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <f t="shared" si="2"/>
-        <v>144</v>
+        <f>A144+1</f>
+        <v>135</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <f>A145+1</f>
+        <v>136</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <f t="shared" si="2"/>
-        <v>146</v>
+        <f>A146+1</f>
+        <v>137</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <f t="shared" si="2"/>
-        <v>147</v>
+        <f>A147+1</f>
+        <v>138</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f t="shared" si="2"/>
-        <v>148</v>
+        <f>A148+1</f>
+        <v>139</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <f t="shared" si="2"/>
-        <v>149</v>
+        <f>A149+1</f>
+        <v>140</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f>A150+1</f>
+        <v>141</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <f t="shared" si="2"/>
-        <v>151</v>
+        <f>A151+1</f>
+        <v>142</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <f t="shared" si="2"/>
-        <v>152</v>
+        <f>A152+1</f>
+        <v>143</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <f t="shared" si="2"/>
-        <v>153</v>
+        <f>A153+1</f>
+        <v>144</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>213</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <f t="shared" si="2"/>
-        <v>154</v>
+        <f>A154+1</f>
+        <v>145</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <f t="shared" si="2"/>
-        <v>155</v>
+        <f>A155+1</f>
+        <v>146</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <f t="shared" si="2"/>
-        <v>156</v>
+        <f>A156+1</f>
+        <v>147</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <f t="shared" si="2"/>
-        <v>157</v>
+        <f>A157+1</f>
+        <v>148</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <f t="shared" si="2"/>
-        <v>158</v>
+        <f>A158+1</f>
+        <v>149</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f t="shared" si="2"/>
-        <v>159</v>
+        <f>A159+1</f>
+        <v>150</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f>A160+1</f>
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>314</v>
+        <v>2</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" ref="A162:A225" si="3">A161+1</f>
-        <v>161</v>
+        <f>A161+1</f>
+        <v>152</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f t="shared" si="3"/>
-        <v>162</v>
+        <f>A162+1</f>
+        <v>153</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <f t="shared" si="3"/>
-        <v>163</v>
+        <f>A163+1</f>
+        <v>154</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>314</v>
+        <v>2</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <f t="shared" si="3"/>
-        <v>164</v>
+        <f>A164+1</f>
+        <v>155</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <f t="shared" si="3"/>
-        <v>165</v>
+        <f>A165+1</f>
+        <v>156</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>314</v>
+        <v>2</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <f t="shared" si="3"/>
-        <v>166</v>
+        <f>A166+1</f>
+        <v>157</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <f t="shared" si="3"/>
-        <v>167</v>
+        <f>A167+1</f>
+        <v>158</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <f t="shared" si="3"/>
-        <v>168</v>
+        <f>A168+1</f>
+        <v>159</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>233</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <f t="shared" si="3"/>
-        <v>169</v>
+        <f>A169+1</f>
+        <v>160</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <f t="shared" si="3"/>
-        <v>170</v>
+        <f>A170+1</f>
+        <v>161</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <f t="shared" si="3"/>
-        <v>171</v>
+        <f>A171+1</f>
+        <v>162</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f t="shared" si="3"/>
-        <v>172</v>
+        <f>A172+1</f>
+        <v>163</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <f t="shared" si="3"/>
-        <v>173</v>
+        <f>A173+1</f>
+        <v>164</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f t="shared" si="3"/>
-        <v>174</v>
+        <f>A174+1</f>
+        <v>165</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <f t="shared" si="3"/>
-        <v>175</v>
+        <f>A175+1</f>
+        <v>166</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <f t="shared" si="3"/>
-        <v>176</v>
+        <f>A176+1</f>
+        <v>167</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <f t="shared" si="3"/>
-        <v>177</v>
+        <f>A177+1</f>
+        <v>168</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <f t="shared" si="3"/>
-        <v>178</v>
+        <f>A178+1</f>
+        <v>169</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <f t="shared" si="3"/>
-        <v>179</v>
+        <f>A179+1</f>
+        <v>170</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <f t="shared" si="3"/>
+        <f>A180+1</f>
+        <v>171</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <f>A181+1</f>
+        <v>172</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <f>A182+1</f>
+        <v>173</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <f t="shared" si="3"/>
+      <c r="D183" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <f t="shared" si="3"/>
-        <v>182</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <f t="shared" si="3"/>
-        <v>183</v>
+        <f>A183+1</f>
+        <v>174</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <f t="shared" si="3"/>
-        <v>184</v>
+        <f>A184+1</f>
+        <v>175</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <f t="shared" si="3"/>
-        <v>185</v>
+        <f>A185+1</f>
+        <v>176</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <f t="shared" si="3"/>
-        <v>186</v>
+        <f>A186+1</f>
+        <v>177</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <f t="shared" si="3"/>
-        <v>187</v>
+        <f>A187+1</f>
+        <v>178</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <f t="shared" si="3"/>
-        <v>188</v>
+        <f>A188+1</f>
+        <v>179</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <f t="shared" si="3"/>
-        <v>189</v>
+        <f>A189+1</f>
+        <v>180</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <f>A190+1</f>
+        <v>181</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <f t="shared" si="3"/>
-        <v>191</v>
+        <f>A191+1</f>
+        <v>182</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <f t="shared" si="3"/>
-        <v>192</v>
+        <f>A192+1</f>
+        <v>183</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <f t="shared" si="3"/>
-        <v>193</v>
+        <f>A193+1</f>
+        <v>184</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>314</v>
+        <v>132</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <f t="shared" si="3"/>
-        <v>194</v>
+        <f>A194+1</f>
+        <v>185</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <f t="shared" si="3"/>
-        <v>195</v>
+        <f>A195+1</f>
+        <v>186</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <f t="shared" si="3"/>
-        <v>196</v>
+        <f>A196+1</f>
+        <v>187</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <f t="shared" si="3"/>
-        <v>197</v>
+        <f>A197+1</f>
+        <v>188</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <f t="shared" si="3"/>
-        <v>198</v>
+        <f>A198+1</f>
+        <v>189</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <f t="shared" si="3"/>
-        <v>199</v>
+        <f>A199+1</f>
+        <v>190</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f>A200+1</f>
+        <v>191</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <f t="shared" si="3"/>
-        <v>201</v>
+        <f>A201+1</f>
+        <v>192</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <f t="shared" si="3"/>
-        <v>202</v>
+        <f>A202+1</f>
+        <v>193</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <f t="shared" si="3"/>
-        <v>203</v>
+        <f>A203+1</f>
+        <v>194</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <f t="shared" si="3"/>
-        <v>204</v>
+        <f>A204+1</f>
+        <v>195</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <f t="shared" si="3"/>
-        <v>205</v>
+        <f>A205+1</f>
+        <v>196</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <f t="shared" si="3"/>
-        <v>206</v>
+        <f>A206+1</f>
+        <v>197</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <f t="shared" si="3"/>
-        <v>207</v>
+        <f>A207+1</f>
+        <v>198</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <f t="shared" si="3"/>
-        <v>208</v>
+        <f>A208+1</f>
+        <v>199</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <f t="shared" si="3"/>
-        <v>209</v>
+        <f>A209+1</f>
+        <v>200</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <f>A210+1</f>
+        <v>201</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <f t="shared" si="3"/>
-        <v>211</v>
+        <f>A211+1</f>
+        <v>202</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <f t="shared" si="3"/>
-        <v>212</v>
+        <f>A212+1</f>
+        <v>203</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <f t="shared" si="3"/>
-        <v>213</v>
+        <f>A213+1</f>
+        <v>204</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <f t="shared" si="3"/>
-        <v>214</v>
+        <f>A214+1</f>
+        <v>205</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <f t="shared" si="3"/>
-        <v>215</v>
+        <f>A215+1</f>
+        <v>206</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <f t="shared" si="3"/>
-        <v>216</v>
+        <f>A216+1</f>
+        <v>207</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <f t="shared" si="3"/>
-        <v>217</v>
+        <f>A217+1</f>
+        <v>208</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <f t="shared" si="3"/>
-        <v>218</v>
+        <f>A218+1</f>
+        <v>209</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <f t="shared" si="3"/>
-        <v>219</v>
+        <f>A219+1</f>
+        <v>210</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <f t="shared" si="3"/>
-        <v>220</v>
+        <f>A220+1</f>
+        <v>211</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <f t="shared" si="3"/>
-        <v>221</v>
+        <f>A221+1</f>
+        <v>212</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <f t="shared" si="3"/>
-        <v>222</v>
+        <f>A222+1</f>
+        <v>213</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <f t="shared" si="3"/>
-        <v>223</v>
+        <f>A223+1</f>
+        <v>214</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <f>A224+1</f>
+        <v>215</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <f>A225+1</f>
+        <v>216</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <f t="shared" si="3"/>
-        <v>224</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <f t="shared" ref="A226" si="4">A225+1</f>
-        <v>225</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>314</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M226">
+    <sortCondition ref="F1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/projecting/cards_doors.xlsx
+++ b/projecting/cards_doors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="362">
   <si>
     <t>Pictures/Munchkin_game_cover.jpg</t>
   </si>
@@ -1077,6 +1077,39 @@
   </si>
   <si>
     <t>Amplifier</t>
+  </si>
+  <si>
+    <t>NoClass_3</t>
+  </si>
+  <si>
+    <t>Elf||Halfling||Bard_5</t>
+  </si>
+  <si>
+    <t>Cleric|Human_5</t>
+  </si>
+  <si>
+    <t>Halfling|Dwarf_5</t>
+  </si>
+  <si>
+    <t>Bard_-3</t>
+  </si>
+  <si>
+    <t>Warrior||Ork_5</t>
+  </si>
+  <si>
+    <t>Woman_5</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>SuperMunchkin||Halfbreed_5</t>
+  </si>
+  <si>
+    <t>Elf_-4</t>
+  </si>
+  <si>
+    <t>Wizard_5||Cleric_3</t>
   </si>
 </sst>
 </file>
@@ -1434,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B214" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4751,6 +4784,27 @@
       <c r="F108" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="G108" s="1">
+        <v>16</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -4769,6 +4823,27 @@
       <c r="F109" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="G109" s="1">
+        <v>7</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -4787,6 +4862,27 @@
       <c r="F110" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -4805,6 +4901,27 @@
       <c r="F111" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -4823,8 +4940,29 @@
       <c r="F112" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G112" s="1">
+        <v>15</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f>A112+1</f>
         <v>103</v>
@@ -4841,8 +4979,29 @@
       <c r="F113" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G113" s="1">
+        <v>4</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f>A113+1</f>
         <v>104</v>
@@ -4859,8 +5018,29 @@
       <c r="F114" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G114" s="1">
+        <v>9</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f>A114+1</f>
         <v>105</v>
@@ -4877,8 +5057,29 @@
       <c r="F115" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G115" s="1">
+        <v>2</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f>A115+1</f>
         <v>106</v>
@@ -4895,8 +5096,29 @@
       <c r="F116" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G116" s="1">
+        <v>4</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f>A116+1</f>
         <v>107</v>
@@ -4913,8 +5135,29 @@
       <c r="F117" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G117" s="1">
+        <v>3</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f>A117+1</f>
         <v>108</v>
@@ -4931,8 +5174,29 @@
       <c r="F118" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G118" s="1">
+        <v>12</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f>A118+1</f>
         <v>109</v>
@@ -4949,8 +5213,29 @@
       <c r="F119" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f>A119+1</f>
         <v>110</v>
@@ -4967,8 +5252,29 @@
       <c r="F120" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G120" s="1">
+        <v>2</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f>A120+1</f>
         <v>111</v>
@@ -4985,8 +5291,29 @@
       <c r="F121" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G121" s="1">
+        <v>8</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f>A121+1</f>
         <v>112</v>
@@ -5003,8 +5330,29 @@
       <c r="F122" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G122" s="1">
+        <v>20</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f>A122+1</f>
         <v>113</v>
@@ -5021,8 +5369,29 @@
       <c r="F123" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G123" s="1">
+        <v>10</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f>A123+1</f>
         <v>114</v>
@@ -5039,8 +5408,29 @@
       <c r="F124" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G124" s="1">
+        <v>17</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L124" s="1">
+        <v>3</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f>A124+1</f>
         <v>115</v>
@@ -5057,8 +5447,29 @@
       <c r="F125" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G125" s="1">
+        <v>13</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f>A125+1</f>
         <v>116</v>
@@ -5075,8 +5486,29 @@
       <c r="F126" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f>A126+1</f>
         <v>117</v>
@@ -5093,8 +5525,29 @@
       <c r="F127" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G127" s="1">
+        <v>11</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f>A127+1</f>
         <v>118</v>
@@ -5110,6 +5563,27 @@
       </c>
       <c r="F128" s="1" t="s">
         <v>326</v>
+      </c>
+      <c r="G128" s="1">
+        <v>14</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L128" s="1">
+        <v>0</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5129,6 +5603,27 @@
       <c r="F129" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="G129" s="1">
+        <v>18</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -5147,6 +5642,27 @@
       <c r="F130" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="G130" s="1">
+        <v>5</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -5165,6 +5681,27 @@
       <c r="F131" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="G131" s="1">
+        <v>2</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -5183,6 +5720,27 @@
       <c r="F132" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="G132" s="1">
+        <v>19</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -5201,6 +5759,27 @@
       <c r="F133" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="G133" s="1">
+        <v>6</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L133" s="1">
+        <v>0</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -5289,13 +5868,34 @@
         <v>0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>16</v>
+        <v>313</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G136" s="1">
+        <v>5</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5307,10 +5907,13 @@
         <v>0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5322,13 +5925,10 @@
         <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5340,13 +5940,13 @@
         <v>0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5358,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5376,16 +5976,16 @@
         <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f>A141+1</f>
         <v>132</v>
@@ -5394,16 +5994,16 @@
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f>A142+1</f>
         <v>133</v>
@@ -5412,13 +6012,13 @@
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5430,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>334</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5448,13 +6048,13 @@
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>45</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5466,13 +6066,13 @@
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5484,10 +6084,13 @@
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5499,13 +6102,10 @@
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5517,13 +6117,13 @@
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5535,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5553,13 +6153,13 @@
         <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5571,16 +6171,16 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f>A152+1</f>
         <v>143</v>
@@ -5589,16 +6189,16 @@
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f>A153+1</f>
         <v>144</v>
@@ -5607,13 +6207,13 @@
         <v>0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5625,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5643,13 +6243,13 @@
         <v>0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5661,16 +6261,16 @@
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f>A157+1</f>
         <v>148</v>
@@ -5679,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5697,16 +6297,16 @@
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f>A159+1</f>
         <v>150</v>
@@ -5715,13 +6315,13 @@
         <v>0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5733,13 +6333,13 @@
         <v>0</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5751,16 +6351,16 @@
         <v>0</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f>A162+1</f>
         <v>153</v>
@@ -5769,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5787,16 +6387,16 @@
         <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f>A164+1</f>
         <v>155</v>
@@ -5805,13 +6405,16 @@
         <v>0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E165" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f>A165+1</f>
         <v>156</v>
@@ -5820,16 +6423,13 @@
         <v>0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f>A166+1</f>
         <v>157</v>
@@ -5838,13 +6438,13 @@
         <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5856,13 +6456,13 @@
         <v>0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5874,10 +6474,13 @@
         <v>0</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5889,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <f>A170+1</f>
         <v>161</v>
@@ -5904,13 +6507,10 @@
         <v>0</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5922,16 +6522,16 @@
         <v>0</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <f>A172+1</f>
         <v>163</v>
@@ -5940,10 +6540,13 @@
         <v>0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>132</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5955,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>132</v>
@@ -5970,13 +6573,10 @@
         <v>0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5988,13 +6588,13 @@
         <v>0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6006,16 +6606,16 @@
         <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f>A177+1</f>
         <v>168</v>
@@ -6024,16 +6624,16 @@
         <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f>A178+1</f>
         <v>169</v>
@@ -6042,10 +6642,13 @@
         <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>132</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6057,13 +6660,13 @@
         <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f>A180+1</f>
         <v>171</v>
@@ -6072,13 +6675,10 @@
         <v>0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6090,13 +6690,13 @@
         <v>0</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6108,13 +6708,13 @@
         <v>0</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6126,16 +6726,16 @@
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <f>A184+1</f>
         <v>175</v>
@@ -6144,16 +6744,16 @@
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f>A185+1</f>
         <v>176</v>
@@ -6162,16 +6762,16 @@
         <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f>A186+1</f>
         <v>177</v>
@@ -6180,13 +6780,16 @@
         <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <f>A187+1</f>
         <v>178</v>
@@ -6195,13 +6798,10 @@
         <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6213,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6231,16 +6831,16 @@
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f>A190+1</f>
         <v>181</v>
@@ -6249,13 +6849,13 @@
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6267,10 +6867,13 @@
         <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>132</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6282,13 +6885,13 @@
         <v>0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f>A193+1</f>
         <v>184</v>
@@ -6297,16 +6900,13 @@
         <v>0</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <f>A194+1</f>
         <v>185</v>
@@ -6315,16 +6915,16 @@
         <v>0</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <f>A195+1</f>
         <v>186</v>
@@ -6333,16 +6933,16 @@
         <v>0</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <f>A196+1</f>
         <v>187</v>
@@ -6351,13 +6951,13 @@
         <v>0</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6369,10 +6969,13 @@
         <v>0</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>313</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6384,13 +6987,10 @@
         <v>0</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6402,16 +7002,16 @@
         <v>0</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <f>A200+1</f>
         <v>191</v>
@@ -6420,13 +7020,13 @@
         <v>0</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6438,16 +7038,16 @@
         <v>0</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <f>A202+1</f>
         <v>193</v>
@@ -6456,13 +7056,13 @@
         <v>0</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6474,10 +7074,13 @@
         <v>0</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>313</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6489,13 +7092,10 @@
         <v>0</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6507,13 +7107,13 @@
         <v>0</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6525,10 +7125,13 @@
         <v>0</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>313</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">

--- a/projecting/cards_doors.xlsx
+++ b/projecting/cards_doors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="365">
   <si>
     <t>Pictures/Munchkin_game_cover.jpg</t>
   </si>
@@ -1110,6 +1110,15 @@
   </si>
   <si>
     <t>Wizard_5||Cleric_3</t>
+  </si>
+  <si>
+    <t>SpecialMechanic</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Race</t>
   </si>
 </sst>
 </file>
@@ -1467,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="N108" sqref="N108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,9 +1532,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="e">
-        <f>A1+1</f>
-        <v>#VALUE!</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1541,9 +1549,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="e">
+      <c r="A3" s="1">
         <f>A2+1</f>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1559,9 +1567,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="e">
-        <f>A3+1</f>
-        <v>#VALUE!</v>
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1577,9 +1585,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="e">
-        <f>A4+1</f>
-        <v>#VALUE!</v>
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -1595,9 +1603,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="e">
-        <f>A5+1</f>
-        <v>#VALUE!</v>
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -1613,9 +1621,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="e">
-        <f>A6+1</f>
-        <v>#VALUE!</v>
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -1631,9 +1639,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="e">
-        <f>A7+1</f>
-        <v>#VALUE!</v>
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -1649,9 +1657,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="e">
-        <f>A8+1</f>
-        <v>#VALUE!</v>
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -1667,9 +1675,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="e">
-        <f>A9+1</f>
-        <v>#VALUE!</v>
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -1686,7 +1694,8 @@
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -1703,8 +1712,8 @@
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>A11+1</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
@@ -1721,8 +1730,8 @@
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>A12+1</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -1739,8 +1748,8 @@
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>A13+1</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -1760,8 +1769,8 @@
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>A14+1</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -1778,8 +1787,8 @@
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>A15+1</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1796,8 +1805,8 @@
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>A16+1</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
@@ -1814,8 +1823,8 @@
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>A17+1</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
@@ -1835,8 +1844,8 @@
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>A18+1</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -1853,8 +1862,8 @@
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f>A19+1</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
@@ -1874,8 +1883,8 @@
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>A20+1</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
@@ -1895,8 +1904,8 @@
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>A21+1</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -1916,8 +1925,8 @@
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>A22+1</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
@@ -1937,8 +1946,8 @@
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>A23+1</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
@@ -1955,8 +1964,8 @@
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>A24+1</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
@@ -1976,8 +1985,8 @@
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f>A25+1</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -1994,8 +2003,8 @@
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>A26+1</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -2012,8 +2021,8 @@
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f>A27+1</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -2033,8 +2042,8 @@
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>A28+1</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
@@ -2051,8 +2060,8 @@
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f>A29+1</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -2072,8 +2081,8 @@
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f>A30+1</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -2090,8 +2099,8 @@
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f>A31+1</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
@@ -2109,10 +2118,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f>A32+1</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
@@ -2127,10 +2136,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f>A33+1</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
@@ -2148,10 +2157,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f>A34+1</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
@@ -2166,10 +2175,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f>A35+1</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
@@ -2184,10 +2193,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f>A36+1</f>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
@@ -2202,10 +2211,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f>A37+1</f>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
@@ -2220,10 +2229,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f>A38+1</f>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
@@ -2238,10 +2247,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f>A39+1</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
@@ -2256,10 +2265,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f>A40+1</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
@@ -2277,10 +2286,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f>A41+1</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
@@ -2295,10 +2304,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f>A42+1</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
@@ -2313,10 +2322,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f>A43+1</f>
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
@@ -2331,10 +2340,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f>A44+1</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
@@ -2349,145 +2358,82 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f>A45+1</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G46" s="1">
-        <v>8</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f>A46+1</f>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G47" s="1">
-        <v>6</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f>A47+1</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G48" s="1">
-        <v>16</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L48" s="1">
-        <v>4</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f>A48+1</f>
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" s="1">
         <v>8</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G49" s="1">
-        <v>4</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>327</v>
@@ -2507,14 +2453,14 @@
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f>A49+1</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>2</v>
@@ -2523,10 +2469,10 @@
         <v>326</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>207</v>
+        <v>336</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>327</v>
@@ -2546,14 +2492,14 @@
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f>A50+1</f>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>2</v>
@@ -2562,13 +2508,13 @@
         <v>326</v>
       </c>
       <c r="G51" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>327</v>
@@ -2577,7 +2523,7 @@
         <v>328</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>331</v>
@@ -2585,14 +2531,14 @@
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <f>A51+1</f>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>2</v>
@@ -2601,10 +2547,10 @@
         <v>326</v>
       </c>
       <c r="G52" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>327</v>
@@ -2613,25 +2559,25 @@
         <v>327</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <f>A52+1</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>2</v>
@@ -2640,10 +2586,10 @@
         <v>326</v>
       </c>
       <c r="G53" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>327</v>
@@ -2655,7 +2601,7 @@
         <v>328</v>
       </c>
       <c r="L53" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>328</v>
@@ -2663,14 +2609,14 @@
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <f>A53+1</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>2</v>
@@ -2679,7 +2625,7 @@
         <v>326</v>
       </c>
       <c r="G54" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>328</v>
@@ -2702,14 +2648,14 @@
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <f>A54+1</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>2</v>
@@ -2718,10 +2664,10 @@
         <v>326</v>
       </c>
       <c r="G55" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>327</v>
@@ -2730,25 +2676,25 @@
         <v>327</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f>A55+1</f>
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>2</v>
@@ -2757,7 +2703,7 @@
         <v>326</v>
       </c>
       <c r="G56" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>328</v>
@@ -2772,22 +2718,22 @@
         <v>328</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f>A56+1</f>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>2</v>
@@ -2796,16 +2742,16 @@
         <v>326</v>
       </c>
       <c r="G57" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>210</v>
+        <v>328</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>328</v>
@@ -2819,14 +2765,14 @@
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f>A57+1</f>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2</v>
@@ -2835,10 +2781,10 @@
         <v>326</v>
       </c>
       <c r="G58" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>327</v>
@@ -2853,19 +2799,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f>A58+1</f>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>2</v>
@@ -2874,7 +2820,7 @@
         <v>326</v>
       </c>
       <c r="G59" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>328</v>
@@ -2892,19 +2838,19 @@
         <v>0</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f>A59+1</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>2</v>
@@ -2913,16 +2859,16 @@
         <v>326</v>
       </c>
       <c r="G60" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>328</v>
+        <v>210</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>328</v>
@@ -2936,14 +2882,14 @@
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f>A60+1</f>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>2</v>
@@ -2975,14 +2921,14 @@
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f>A61+1</f>
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>2</v>
@@ -2991,10 +2937,10 @@
         <v>326</v>
       </c>
       <c r="G62" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>327</v>
@@ -3014,14 +2960,14 @@
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f>A62+1</f>
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>2</v>
@@ -3030,13 +2976,13 @@
         <v>326</v>
       </c>
       <c r="G63" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>327</v>
@@ -3053,14 +2999,14 @@
     </row>
     <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f>A63+1</f>
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>2</v>
@@ -3069,7 +3015,7 @@
         <v>326</v>
       </c>
       <c r="G64" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>328</v>
@@ -3092,14 +3038,14 @@
     </row>
     <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <f>A64+1</f>
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>2</v>
@@ -3108,10 +3054,10 @@
         <v>326</v>
       </c>
       <c r="G65" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>327</v>
@@ -3126,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <f>A65+1</f>
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>2</v>
@@ -3147,7 +3093,7 @@
         <v>326</v>
       </c>
       <c r="G66" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>328</v>
@@ -3170,14 +3116,14 @@
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <f>A66+1</f>
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>2</v>
@@ -3204,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f>A67+1</f>
-        <v>58</v>
+        <f t="shared" ref="A68:A131" si="1">A67+1</f>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>2</v>
@@ -3225,10 +3171,10 @@
         <v>326</v>
       </c>
       <c r="G68" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>327</v>
@@ -3243,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <f>A68+1</f>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>2</v>
@@ -3264,13 +3210,13 @@
         <v>326</v>
       </c>
       <c r="G69" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>327</v>
@@ -3282,19 +3228,19 @@
         <v>0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <f>A69+1</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>2</v>
@@ -3303,10 +3249,10 @@
         <v>326</v>
       </c>
       <c r="G70" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>327</v>
@@ -3318,22 +3264,22 @@
         <v>328</v>
       </c>
       <c r="L70" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <f>A70+1</f>
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>2</v>
@@ -3342,16 +3288,16 @@
         <v>326</v>
       </c>
       <c r="G71" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>328</v>
@@ -3365,14 +3311,14 @@
     </row>
     <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <f>A71+1</f>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>2</v>
@@ -3381,10 +3327,10 @@
         <v>326</v>
       </c>
       <c r="G72" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>327</v>
@@ -3393,25 +3339,25 @@
         <v>327</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f>A72+1</f>
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>2</v>
@@ -3420,10 +3366,10 @@
         <v>326</v>
       </c>
       <c r="G73" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>327</v>
@@ -3435,22 +3381,22 @@
         <v>328</v>
       </c>
       <c r="L73" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <f>A73+1</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>2</v>
@@ -3462,13 +3408,13 @@
         <v>1</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>328</v>
@@ -3477,19 +3423,19 @@
         <v>0</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <f>A74+1</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>2</v>
@@ -3498,7 +3444,7 @@
         <v>326</v>
       </c>
       <c r="G75" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>328</v>
@@ -3510,25 +3456,25 @@
         <v>327</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L75" s="1">
         <v>0</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <f>A75+1</f>
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>2</v>
@@ -3537,13 +3483,13 @@
         <v>326</v>
       </c>
       <c r="G76" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>327</v>
@@ -3555,19 +3501,19 @@
         <v>0</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>328</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <f>A76+1</f>
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>2</v>
@@ -3576,7 +3522,7 @@
         <v>326</v>
       </c>
       <c r="G77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>328</v>
@@ -3599,14 +3545,14 @@
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <f>A77+1</f>
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>2</v>
@@ -3615,7 +3561,7 @@
         <v>326</v>
       </c>
       <c r="G78" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>328</v>
@@ -3638,14 +3584,14 @@
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <f>A78+1</f>
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>2</v>
@@ -3654,10 +3600,10 @@
         <v>326</v>
       </c>
       <c r="G79" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>330</v>
@@ -3669,22 +3615,22 @@
         <v>328</v>
       </c>
       <c r="L79" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <f>A79+1</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>2</v>
@@ -3693,7 +3639,7 @@
         <v>326</v>
       </c>
       <c r="G80" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>328</v>
@@ -3708,22 +3654,22 @@
         <v>328</v>
       </c>
       <c r="L80" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f>A80+1</f>
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>2</v>
@@ -3732,7 +3678,7 @@
         <v>326</v>
       </c>
       <c r="G81" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>328</v>
@@ -3741,28 +3687,28 @@
         <v>327</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L81" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <f>A81+1</f>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>2</v>
@@ -3771,13 +3717,13 @@
         <v>326</v>
       </c>
       <c r="G82" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>327</v>
@@ -3786,46 +3732,46 @@
         <v>328</v>
       </c>
       <c r="L82" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <f>A82+1</f>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G83" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L83" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>328</v>
@@ -3833,23 +3779,23 @@
     </row>
     <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <f>A83+1</f>
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G84" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>328</v>
@@ -3858,40 +3804,40 @@
         <v>327</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L84" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <f>A84+1</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G85" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>327</v>
@@ -3911,14 +3857,14 @@
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <f>A85+1</f>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>132</v>
@@ -3927,37 +3873,37 @@
         <v>326</v>
       </c>
       <c r="G86" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="L86" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <f>A86+1</f>
-        <v>77</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>132</v>
@@ -3966,10 +3912,10 @@
         <v>326</v>
       </c>
       <c r="G87" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>327</v>
@@ -3984,19 +3930,19 @@
         <v>0</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <f>A87+1</f>
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>132</v>
@@ -4005,10 +3951,10 @@
         <v>326</v>
       </c>
       <c r="G88" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>327</v>
@@ -4023,19 +3969,19 @@
         <v>0</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <f>A88+1</f>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>132</v>
@@ -4044,7 +3990,7 @@
         <v>326</v>
       </c>
       <c r="G89" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>328</v>
@@ -4056,25 +4002,25 @@
         <v>327</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <f>A89+1</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>132</v>
@@ -4083,10 +4029,10 @@
         <v>326</v>
       </c>
       <c r="G90" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>222</v>
+        <v>348</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>327</v>
@@ -4097,23 +4043,23 @@
       <c r="K90" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L90" s="1" t="s">
-        <v>347</v>
+      <c r="L90" s="1">
+        <v>0</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <f>A90+1</f>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>132</v>
@@ -4122,7 +4068,7 @@
         <v>326</v>
       </c>
       <c r="G91" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>328</v>
@@ -4136,8 +4082,8 @@
       <c r="K91" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L91" s="1" t="s">
-        <v>347</v>
+      <c r="L91" s="1">
+        <v>0</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>331</v>
@@ -4145,14 +4091,14 @@
     </row>
     <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <f>A91+1</f>
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>132</v>
@@ -4161,37 +4107,37 @@
         <v>326</v>
       </c>
       <c r="G92" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>327</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L92" s="1">
-        <v>0</v>
+        <v>337</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <f>A92+1</f>
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>132</v>
@@ -4200,13 +4146,13 @@
         <v>326</v>
       </c>
       <c r="G93" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>327</v>
@@ -4214,8 +4160,8 @@
       <c r="K93" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L93" s="1">
-        <v>0</v>
+      <c r="L93" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>331</v>
@@ -4223,14 +4169,14 @@
     </row>
     <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <f>A93+1</f>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>132</v>
@@ -4239,10 +4185,10 @@
         <v>326</v>
       </c>
       <c r="G94" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>327</v>
@@ -4253,23 +4199,23 @@
       <c r="K94" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L94" s="1">
-        <v>3</v>
+      <c r="L94" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <f>A94+1</f>
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>132</v>
@@ -4278,13 +4224,13 @@
         <v>326</v>
       </c>
       <c r="G95" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>327</v>
@@ -4293,22 +4239,22 @@
         <v>328</v>
       </c>
       <c r="L95" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <f>A95+1</f>
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>132</v>
@@ -4317,13 +4263,13 @@
         <v>326</v>
       </c>
       <c r="G96" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>327</v>
@@ -4335,19 +4281,19 @@
         <v>0</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <f>A96+1</f>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>132</v>
@@ -4356,10 +4302,10 @@
         <v>326</v>
       </c>
       <c r="G97" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>327</v>
@@ -4371,22 +4317,22 @@
         <v>328</v>
       </c>
       <c r="L97" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <f>A97+1</f>
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>132</v>
@@ -4395,10 +4341,10 @@
         <v>326</v>
       </c>
       <c r="G98" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>327</v>
@@ -4410,22 +4356,22 @@
         <v>328</v>
       </c>
       <c r="L98" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <f>A98+1</f>
-        <v>89</v>
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>132</v>
@@ -4434,10 +4380,10 @@
         <v>326</v>
       </c>
       <c r="G99" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>327</v>
@@ -4451,20 +4397,20 @@
       <c r="L99" s="1">
         <v>0</v>
       </c>
-      <c r="M99" s="1">
-        <v>0</v>
+      <c r="M99" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <f>A99+1</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>132</v>
@@ -4473,7 +4419,7 @@
         <v>326</v>
       </c>
       <c r="G100" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>328</v>
@@ -4488,7 +4434,7 @@
         <v>328</v>
       </c>
       <c r="L100" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>331</v>
@@ -4496,14 +4442,14 @@
     </row>
     <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <f>A100+1</f>
-        <v>91</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>132</v>
@@ -4512,7 +4458,7 @@
         <v>326</v>
       </c>
       <c r="G101" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>328</v>
@@ -4530,19 +4476,19 @@
         <v>0</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>183</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <f>A101+1</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>132</v>
@@ -4551,10 +4497,10 @@
         <v>326</v>
       </c>
       <c r="G102" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>327</v>
@@ -4568,20 +4514,20 @@
       <c r="L102" s="1">
         <v>0</v>
       </c>
-      <c r="M102" s="1" t="s">
-        <v>331</v>
+      <c r="M102" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <f>A102+1</f>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>132</v>
@@ -4590,10 +4536,10 @@
         <v>326</v>
       </c>
       <c r="G103" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>327</v>
@@ -4605,22 +4551,22 @@
         <v>328</v>
       </c>
       <c r="L103" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <f>A103+1</f>
-        <v>94</v>
+        <f t="shared" si="1"/>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>132</v>
@@ -4629,10 +4575,10 @@
         <v>326</v>
       </c>
       <c r="G104" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>327</v>
@@ -4647,19 +4593,19 @@
         <v>0</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>328</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <f>A104+1</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>132</v>
@@ -4668,10 +4614,10 @@
         <v>326</v>
       </c>
       <c r="G105" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>327</v>
@@ -4691,14 +4637,14 @@
     </row>
     <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <f>A105+1</f>
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>132</v>
@@ -4707,13 +4653,13 @@
         <v>326</v>
       </c>
       <c r="G106" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>327</v>
@@ -4730,14 +4676,14 @@
     </row>
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <f>A106+1</f>
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>132</v>
@@ -4746,10 +4692,10 @@
         <v>326</v>
       </c>
       <c r="G107" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>327</v>
@@ -4764,37 +4710,37 @@
         <v>0</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <f>A107+1</f>
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G108" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>328</v>
@@ -4808,29 +4754,29 @@
     </row>
     <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <f>A108+1</f>
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G109" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>98</v>
+        <v>349</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>327</v>
@@ -4847,26 +4793,26 @@
     </row>
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <f>A109+1</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G110" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>327</v>
@@ -4881,19 +4827,19 @@
         <v>0</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <f>A110+1</f>
-        <v>101</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>313</v>
@@ -4902,16 +4848,16 @@
         <v>326</v>
       </c>
       <c r="G111" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>328</v>
@@ -4925,14 +4871,14 @@
     </row>
     <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <f>A111+1</f>
-        <v>102</v>
+        <f t="shared" si="1"/>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>313</v>
@@ -4941,10 +4887,10 @@
         <v>326</v>
       </c>
       <c r="G112" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>360</v>
+        <v>98</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>327</v>
@@ -4964,14 +4910,14 @@
     </row>
     <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <f>A112+1</f>
-        <v>103</v>
+        <f t="shared" si="1"/>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>313</v>
@@ -4980,10 +4926,10 @@
         <v>326</v>
       </c>
       <c r="G113" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>359</v>
+        <v>184</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>327</v>
@@ -5003,14 +4949,14 @@
     </row>
     <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <f>A113+1</f>
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>313</v>
@@ -5019,7 +4965,7 @@
         <v>326</v>
       </c>
       <c r="G114" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>328</v>
@@ -5037,19 +4983,19 @@
         <v>0</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <f>A114+1</f>
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>313</v>
@@ -5058,10 +5004,10 @@
         <v>326</v>
       </c>
       <c r="G115" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>327</v>
@@ -5070,25 +5016,25 @@
         <v>327</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="L115" s="1">
         <v>0</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <f>A115+1</f>
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>313</v>
@@ -5100,7 +5046,7 @@
         <v>4</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>327</v>
@@ -5115,19 +5061,19 @@
         <v>0</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <f>A116+1</f>
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>313</v>
@@ -5136,7 +5082,7 @@
         <v>326</v>
       </c>
       <c r="G117" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>328</v>
@@ -5154,19 +5100,19 @@
         <v>0</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <f>A117+1</f>
-        <v>108</v>
+        <f t="shared" si="1"/>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>313</v>
@@ -5175,37 +5121,37 @@
         <v>326</v>
       </c>
       <c r="G118" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>327</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="L118" s="1">
         <v>0</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>331</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <f>A118+1</f>
-        <v>109</v>
+        <f t="shared" si="1"/>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>313</v>
@@ -5214,7 +5160,7 @@
         <v>326</v>
       </c>
       <c r="G119" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>328</v>
@@ -5237,14 +5183,14 @@
     </row>
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <f>A119+1</f>
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>313</v>
@@ -5253,7 +5199,7 @@
         <v>326</v>
       </c>
       <c r="G120" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>328</v>
@@ -5276,14 +5222,14 @@
     </row>
     <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <f>A120+1</f>
-        <v>111</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>313</v>
@@ -5292,13 +5238,13 @@
         <v>326</v>
       </c>
       <c r="G121" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>327</v>
@@ -5310,19 +5256,19 @@
         <v>0</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <f>A121+1</f>
-        <v>112</v>
+        <f t="shared" si="1"/>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>313</v>
@@ -5331,16 +5277,16 @@
         <v>326</v>
       </c>
       <c r="G122" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>328</v>
@@ -5354,14 +5300,14 @@
     </row>
     <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <f>A122+1</f>
-        <v>113</v>
+        <f t="shared" si="1"/>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>313</v>
@@ -5370,10 +5316,10 @@
         <v>326</v>
       </c>
       <c r="G123" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>327</v>
@@ -5388,19 +5334,19 @@
         <v>0</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <f>A123+1</f>
-        <v>114</v>
+        <f t="shared" si="1"/>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>313</v>
@@ -5409,13 +5355,13 @@
         <v>326</v>
       </c>
       <c r="G124" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>327</v>
@@ -5424,22 +5370,22 @@
         <v>328</v>
       </c>
       <c r="L124" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <f>A124+1</f>
-        <v>115</v>
+        <f t="shared" si="1"/>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>313</v>
@@ -5448,16 +5394,16 @@
         <v>326</v>
       </c>
       <c r="G125" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>328</v>
@@ -5466,19 +5412,19 @@
         <v>0</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <f>A125+1</f>
-        <v>116</v>
+        <f t="shared" si="1"/>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>313</v>
@@ -5487,10 +5433,10 @@
         <v>326</v>
       </c>
       <c r="G126" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>327</v>
@@ -5510,14 +5456,14 @@
     </row>
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <f>A126+1</f>
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>313</v>
@@ -5526,13 +5472,13 @@
         <v>326</v>
       </c>
       <c r="G127" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>355</v>
+        <v>222</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>327</v>
@@ -5541,7 +5487,7 @@
         <v>328</v>
       </c>
       <c r="L127" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>328</v>
@@ -5549,14 +5495,14 @@
     </row>
     <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <f>A127+1</f>
-        <v>118</v>
+        <f t="shared" si="1"/>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>313</v>
@@ -5565,10 +5511,10 @@
         <v>326</v>
       </c>
       <c r="G128" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>327</v>
@@ -5588,14 +5534,14 @@
     </row>
     <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <f>A128+1</f>
-        <v>119</v>
+        <f t="shared" si="1"/>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>313</v>
@@ -5604,16 +5550,16 @@
         <v>326</v>
       </c>
       <c r="G129" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>328</v>
@@ -5627,14 +5573,14 @@
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <f>A129+1</f>
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>313</v>
@@ -5643,10 +5589,10 @@
         <v>326</v>
       </c>
       <c r="G130" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>327</v>
@@ -5666,14 +5612,14 @@
     </row>
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <f>A130+1</f>
-        <v>121</v>
+        <f t="shared" si="1"/>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>313</v>
@@ -5682,10 +5628,10 @@
         <v>326</v>
       </c>
       <c r="G131" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>327</v>
@@ -5705,14 +5651,14 @@
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <f>A131+1</f>
-        <v>122</v>
+        <f t="shared" ref="A132:A195" si="2">A131+1</f>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>313</v>
@@ -5721,16 +5667,16 @@
         <v>326</v>
       </c>
       <c r="G132" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>328</v>
@@ -5744,14 +5690,14 @@
     </row>
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <f>A132+1</f>
-        <v>123</v>
+        <f t="shared" si="2"/>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>313</v>
@@ -5760,10 +5706,10 @@
         <v>326</v>
       </c>
       <c r="G133" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>327</v>
@@ -5783,29 +5729,29 @@
     </row>
     <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <f>A133+1</f>
-        <v>124</v>
+        <f t="shared" si="2"/>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G134" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>327</v>
@@ -5820,28 +5766,28 @@
         <v>328</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <f>A134+1</f>
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H135" s="1">
-        <v>7</v>
+      <c r="G135" s="1">
+        <v>19</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>327</v>
@@ -5861,14 +5807,14 @@
     </row>
     <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <f>A135+1</f>
-        <v>126</v>
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>313</v>
@@ -5877,10 +5823,10 @@
         <v>326</v>
       </c>
       <c r="G136" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>327</v>
@@ -5900,1505 +5846,1826 @@
     </row>
     <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <f>A136+1</f>
-        <v>127</v>
+        <f t="shared" si="2"/>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G137" s="1">
+        <v>9</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <f>A137+1</f>
-        <v>128</v>
+        <f t="shared" si="2"/>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H138" s="1">
+        <v>7</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L138" s="1">
+        <v>0</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <f>A138+1</f>
-        <v>129</v>
+        <f t="shared" si="2"/>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>17</v>
+        <v>313</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G139" s="1">
+        <v>5</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <f>A139+1</f>
-        <v>130</v>
+        <f t="shared" si="2"/>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <f>A140+1</f>
-        <v>131</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>20</v>
+      <c r="F141" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <f>A141+1</f>
-        <v>132</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <f>A142+1</f>
-        <v>133</v>
+        <f t="shared" si="2"/>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <f>A143+1</f>
-        <v>134</v>
+        <f t="shared" si="2"/>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E144" s="1" t="s">
+      <c r="D147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <f>A144+1</f>
-        <v>135</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="F147" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E145" s="1" t="s">
+      <c r="D148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <f>A145+1</f>
-        <v>136</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="F148" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="D149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <f>A146+1</f>
-        <v>137</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="F149" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="D150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <f>A147+1</f>
-        <v>138</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="F150" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <f>A148+1</f>
-        <v>139</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="D151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" s="1" t="s">
+      <c r="D152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <f>A149+1</f>
-        <v>140</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="F152" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="D153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <f>A150+1</f>
-        <v>141</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="F153" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E151" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <f>A151+1</f>
-        <v>142</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="F154" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E152" s="1" t="s">
+      <c r="D155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <f>A152+1</f>
-        <v>143</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="F155" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E153" s="1" t="s">
+      <c r="D156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <f>A153+1</f>
-        <v>144</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="F156" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E154" s="1" t="s">
+      <c r="D157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <f>A154+1</f>
-        <v>145</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="F157" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="D158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <f>A155+1</f>
-        <v>146</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="F158" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E156" s="1" t="s">
+      <c r="D159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <f>A156+1</f>
-        <v>147</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="F159" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E157" s="1" t="s">
+      <c r="D160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <f>A157+1</f>
-        <v>148</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="F160" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E158" s="1" t="s">
+      <c r="D161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <f>A158+1</f>
-        <v>149</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="F161" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E159" s="1" t="s">
+      <c r="D162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <f>A159+1</f>
-        <v>150</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="F162" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E160" s="1" t="s">
+      <c r="D163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <f>A160+1</f>
-        <v>151</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="F163" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E161" s="1" t="s">
+      <c r="D164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <f>A161+1</f>
-        <v>152</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="F164" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E162" s="1" t="s">
+      <c r="D165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <f>A162+1</f>
-        <v>153</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="F165" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E163" s="1" t="s">
+      <c r="D166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <f>A163+1</f>
-        <v>154</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="F166" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E164" s="1" t="s">
+      <c r="D167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <f>A164+1</f>
-        <v>155</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C165" s="1" t="s">
+      <c r="F167" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E165" s="1" t="s">
+      <c r="D168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <f>A165+1</f>
-        <v>156</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="F168" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <f>A166+1</f>
-        <v>157</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" s="1" t="s">
+      <c r="D169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E167" s="1" t="s">
+      <c r="D170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <f>A167+1</f>
-        <v>158</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="F170" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="D171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <f>A168+1</f>
-        <v>159</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="F171" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E169" s="1" t="s">
+      <c r="D172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <f>A169+1</f>
-        <v>160</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="F172" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <f>A170+1</f>
-        <v>161</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="D173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <f>A171+1</f>
-        <v>162</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <f>A172+1</f>
-        <v>163</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <f>A173+1</f>
-        <v>164</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F174" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f>A174+1</f>
-        <v>165</v>
+        <f t="shared" si="2"/>
+        <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E175" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <f>A175+1</f>
-        <v>166</v>
+        <f t="shared" si="2"/>
+        <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <f>A176+1</f>
-        <v>167</v>
+        <f t="shared" si="2"/>
+        <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F177" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <f>A177+1</f>
-        <v>168</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F178" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <f>A178+1</f>
-        <v>169</v>
+        <f t="shared" si="2"/>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <f>A179+1</f>
-        <v>170</v>
+        <f t="shared" si="2"/>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E180" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <f>A180+1</f>
-        <v>171</v>
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E181" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <f>A181+1</f>
-        <v>172</v>
+        <f t="shared" si="2"/>
+        <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <f>A182+1</f>
-        <v>173</v>
+        <f t="shared" si="2"/>
+        <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F183" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <f>A183+1</f>
-        <v>174</v>
+        <f t="shared" si="2"/>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F184" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <f>A184+1</f>
-        <v>175</v>
+        <f t="shared" si="2"/>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <f>A185+1</f>
-        <v>176</v>
-      </c>
       <c r="B186" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <f>A186+1</f>
-        <v>177</v>
+        <f t="shared" si="2"/>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <f>A187+1</f>
-        <v>178</v>
+        <f t="shared" si="2"/>
+        <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E188" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <f>A188+1</f>
-        <v>179</v>
+        <f t="shared" si="2"/>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <f>A189+1</f>
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <f>A190+1</f>
-        <v>181</v>
+        <f t="shared" si="2"/>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F191" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <f>A191+1</f>
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <f>A192+1</f>
-        <v>183</v>
+        <f t="shared" si="2"/>
+        <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E193" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <f>A193+1</f>
-        <v>184</v>
+        <f t="shared" si="2"/>
+        <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E194" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <f>A194+1</f>
-        <v>185</v>
+        <f t="shared" si="2"/>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <f t="shared" ref="A196:A226" si="3">A195+1</f>
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <f>A195+1</f>
-        <v>186</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C196" s="1" t="s">
+      <c r="F198" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <f>A196+1</f>
-        <v>187</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <f>A197+1</f>
-        <v>188</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <f>A198+1</f>
-        <v>189</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E199" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <f>A199+1</f>
-        <v>190</v>
+        <f t="shared" si="3"/>
+        <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <f>A200+1</f>
-        <v>191</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <f>A201+1</f>
-        <v>192</v>
+        <f t="shared" si="3"/>
+        <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F202" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <f>A202+1</f>
-        <v>193</v>
+        <f t="shared" si="3"/>
+        <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <f>A203+1</f>
-        <v>194</v>
+        <f t="shared" si="3"/>
+        <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <f>A204+1</f>
-        <v>195</v>
+        <f t="shared" si="3"/>
+        <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E205" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <f>A205+1</f>
-        <v>196</v>
+        <f t="shared" si="3"/>
+        <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <f>A206+1</f>
-        <v>197</v>
+        <f t="shared" si="3"/>
+        <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <f>A207+1</f>
-        <v>198</v>
+        <f t="shared" si="3"/>
+        <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F208" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <f>A208+1</f>
-        <v>199</v>
+        <f t="shared" si="3"/>
+        <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <f>A209+1</f>
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <f>A210+1</f>
-        <v>201</v>
+        <f t="shared" si="3"/>
+        <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <f>A211+1</f>
-        <v>202</v>
+        <f t="shared" si="3"/>
+        <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E212" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <f>A212+1</f>
-        <v>203</v>
+        <f t="shared" si="3"/>
+        <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <f>A213+1</f>
-        <v>204</v>
+        <f t="shared" si="3"/>
+        <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <f>A214+1</f>
-        <v>205</v>
+        <f t="shared" si="3"/>
+        <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <f>A215+1</f>
-        <v>206</v>
+        <f t="shared" si="3"/>
+        <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <f>A216+1</f>
-        <v>207</v>
+        <f t="shared" si="3"/>
+        <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <f>A217+1</f>
-        <v>208</v>
+        <f t="shared" si="3"/>
+        <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <f>A218+1</f>
-        <v>209</v>
+        <f t="shared" si="3"/>
+        <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <f>A219+1</f>
-        <v>210</v>
+        <f t="shared" si="3"/>
+        <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E220" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <f>A220+1</f>
-        <v>211</v>
+        <f t="shared" si="3"/>
+        <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <f>A221+1</f>
-        <v>212</v>
+        <f t="shared" si="3"/>
+        <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E222" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <f>A222+1</f>
-        <v>213</v>
+        <f t="shared" si="3"/>
+        <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>0</v>
@@ -7412,11 +7679,14 @@
       <c r="E223" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F223" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <f>A223+1</f>
-        <v>214</v>
+        <f t="shared" si="3"/>
+        <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>0</v>
@@ -7430,11 +7700,14 @@
       <c r="E224" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F224" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <f>A224+1</f>
-        <v>215</v>
+        <f t="shared" si="3"/>
+        <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>0</v>
@@ -7445,11 +7718,14 @@
       <c r="D225" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F225" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <f>A225+1</f>
-        <v>216</v>
+        <f t="shared" si="3"/>
+        <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>0</v>
@@ -7462,6 +7738,9 @@
       </c>
       <c r="E226" s="1" t="s">
         <v>310</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/projecting/cards_doors.xlsx
+++ b/projecting/cards_doors.xlsx
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A226"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,16 +1701,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1719,13 +1719,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1737,13 +1740,16 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1755,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1776,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -1812,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -1830,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>339</v>
@@ -1851,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
@@ -1869,13 +1875,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>339</v>
@@ -1890,13 +1893,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>339</v>
@@ -1911,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>339</v>
@@ -1932,13 +1932,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>339</v>
@@ -1953,10 +1950,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>339</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>339</v>
@@ -1992,10 +1992,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>339</v>
@@ -2010,10 +2013,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>339</v>
@@ -2028,13 +2034,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>339</v>
@@ -2049,10 +2052,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>339</v>
@@ -2067,13 +2073,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>339</v>
@@ -2088,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>132</v>
@@ -2106,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>339</v>
@@ -2127,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>132</v>
@@ -2145,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>339</v>
@@ -2166,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>132</v>
@@ -2184,10 +2187,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>132</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>339</v>
@@ -2202,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>339</v>
@@ -2220,10 +2226,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>339</v>
@@ -2238,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>339</v>
@@ -2256,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>339</v>
@@ -2274,13 +2283,10 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>313</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>339</v>
@@ -2295,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>339</v>
@@ -2313,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>339</v>
@@ -2331,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>339</v>
@@ -2349,10 +2355,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>339</v>
@@ -2367,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>339</v>
@@ -2385,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>339</v>
@@ -2403,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>313</v>
@@ -2421,34 +2430,13 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>312</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G49" s="1">
-        <v>8</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2460,34 +2448,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>278</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G50" s="1">
-        <v>6</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2499,34 +2466,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G51" s="1">
-        <v>16</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L51" s="1">
-        <v>4</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2538,34 +2484,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G52" s="1">
-        <v>4</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2577,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>2</v>
@@ -2586,10 +2511,10 @@
         <v>326</v>
       </c>
       <c r="G53" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>327</v>
@@ -2616,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>2</v>
@@ -2625,10 +2550,10 @@
         <v>326</v>
       </c>
       <c r="G54" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>327</v>
@@ -2643,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2655,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>2</v>
@@ -2664,25 +2589,25 @@
         <v>326</v>
       </c>
       <c r="G55" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>327</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L55" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2694,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>2</v>
@@ -2703,10 +2628,10 @@
         <v>326</v>
       </c>
       <c r="G56" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>327</v>
@@ -2718,7 +2643,7 @@
         <v>328</v>
       </c>
       <c r="L56" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>328</v>
@@ -2733,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>2</v>
@@ -2742,10 +2667,10 @@
         <v>326</v>
       </c>
       <c r="G57" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>327</v>
@@ -2760,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2772,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2</v>
@@ -2781,10 +2706,10 @@
         <v>326</v>
       </c>
       <c r="G58" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>327</v>
@@ -2799,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2811,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>2</v>
@@ -2820,7 +2745,7 @@
         <v>326</v>
       </c>
       <c r="G59" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>328</v>
@@ -2832,13 +2757,13 @@
         <v>327</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L59" s="1">
         <v>0</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2850,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>2</v>
@@ -2859,25 +2784,25 @@
         <v>326</v>
       </c>
       <c r="G60" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>210</v>
+        <v>328</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L60" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2889,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>2</v>
@@ -2898,7 +2823,7 @@
         <v>326</v>
       </c>
       <c r="G61" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>328</v>
@@ -2928,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>2</v>
@@ -2940,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>327</v>
@@ -2967,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>2</v>
@@ -2976,7 +2901,7 @@
         <v>326</v>
       </c>
       <c r="G63" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>328</v>
@@ -3006,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>2</v>
@@ -3015,16 +2940,16 @@
         <v>326</v>
       </c>
       <c r="G64" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>328</v>
+        <v>210</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>328</v>
@@ -3045,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>2</v>
@@ -3054,10 +2979,10 @@
         <v>326</v>
       </c>
       <c r="G65" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>327</v>
@@ -3072,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3084,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>2</v>
@@ -3093,13 +3018,13 @@
         <v>326</v>
       </c>
       <c r="G66" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>327</v>
@@ -3111,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3123,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>2</v>
@@ -3132,7 +3057,7 @@
         <v>326</v>
       </c>
       <c r="G67" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>328</v>
@@ -3162,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>2</v>
@@ -3171,7 +3096,7 @@
         <v>326</v>
       </c>
       <c r="G68" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>328</v>
@@ -3201,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>2</v>
@@ -3210,13 +3135,13 @@
         <v>326</v>
       </c>
       <c r="G69" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>327</v>
@@ -3228,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3240,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>2</v>
@@ -3249,13 +3174,13 @@
         <v>326</v>
       </c>
       <c r="G70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>327</v>
@@ -3267,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3279,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>2</v>
@@ -3288,10 +3213,10 @@
         <v>326</v>
       </c>
       <c r="G71" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>327</v>
@@ -3306,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3318,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>2</v>
@@ -3327,10 +3252,10 @@
         <v>326</v>
       </c>
       <c r="G72" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>327</v>
@@ -3345,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3357,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>2</v>
@@ -3366,13 +3291,13 @@
         <v>326</v>
       </c>
       <c r="G73" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>327</v>
@@ -3381,10 +3306,10 @@
         <v>328</v>
       </c>
       <c r="L73" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3396,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>2</v>
@@ -3408,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>328</v>
@@ -3423,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3435,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>2</v>
@@ -3444,10 +3369,10 @@
         <v>326</v>
       </c>
       <c r="G75" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>328</v>
+        <v>213</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>327</v>
@@ -3456,13 +3381,13 @@
         <v>327</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L75" s="1">
         <v>0</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3474,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>2</v>
@@ -3483,10 +3408,10 @@
         <v>326</v>
       </c>
       <c r="G76" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>327</v>
@@ -3501,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3513,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>2</v>
@@ -3522,10 +3447,10 @@
         <v>326</v>
       </c>
       <c r="G77" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>327</v>
@@ -3537,10 +3462,10 @@
         <v>328</v>
       </c>
       <c r="L77" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>331</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3552,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>2</v>
@@ -3561,16 +3486,16 @@
         <v>326</v>
       </c>
       <c r="G78" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>328</v>
@@ -3579,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3591,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>2</v>
@@ -3600,25 +3525,25 @@
         <v>326</v>
       </c>
       <c r="G79" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>327</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L79" s="1">
         <v>0</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3630,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>2</v>
@@ -3639,7 +3564,7 @@
         <v>326</v>
       </c>
       <c r="G80" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>328</v>
@@ -3657,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>331</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3669,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>2</v>
@@ -3678,7 +3603,7 @@
         <v>326</v>
       </c>
       <c r="G81" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>328</v>
@@ -3708,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>2</v>
@@ -3717,13 +3642,13 @@
         <v>326</v>
       </c>
       <c r="G82" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>327</v>
@@ -3732,7 +3657,7 @@
         <v>328</v>
       </c>
       <c r="L82" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>331</v>
@@ -3747,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>2</v>
@@ -3756,13 +3681,13 @@
         <v>326</v>
       </c>
       <c r="G83" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>327</v>
@@ -3771,7 +3696,7 @@
         <v>328</v>
       </c>
       <c r="L83" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>328</v>
@@ -3786,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>2</v>
@@ -3795,7 +3720,7 @@
         <v>326</v>
       </c>
       <c r="G84" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>328</v>
@@ -3804,16 +3729,16 @@
         <v>327</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L84" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3825,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>2</v>
@@ -3834,10 +3759,10 @@
         <v>326</v>
       </c>
       <c r="G85" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>327</v>
@@ -3852,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3864,34 +3789,34 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G86" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L86" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3903,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G87" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>328</v>
@@ -3927,10 +3852,10 @@
         <v>328</v>
       </c>
       <c r="L87" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3942,31 +3867,31 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G88" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L88" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>328</v>
@@ -3981,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G89" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>327</v>
@@ -4002,13 +3927,13 @@
         <v>327</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="L89" s="1">
         <v>0</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4020,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>132</v>
@@ -4029,22 +3954,22 @@
         <v>326</v>
       </c>
       <c r="G90" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L90" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>328</v>
@@ -4059,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>132</v>
@@ -4068,7 +3993,7 @@
         <v>326</v>
       </c>
       <c r="G91" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>328</v>
@@ -4098,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>132</v>
@@ -4107,10 +4032,10 @@
         <v>326</v>
       </c>
       <c r="G92" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>327</v>
@@ -4119,16 +4044,16 @@
         <v>327</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4137,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>132</v>
@@ -4146,10 +4071,10 @@
         <v>326</v>
       </c>
       <c r="G93" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>327</v>
@@ -4158,10 +4083,10 @@
         <v>327</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>331</v>
@@ -4176,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>132</v>
@@ -4185,10 +4110,10 @@
         <v>326</v>
       </c>
       <c r="G94" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>327</v>
@@ -4199,11 +4124,11 @@
       <c r="K94" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>347</v>
+      <c r="L94" s="1">
+        <v>0</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4215,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>346</v>
+        <v>148</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>132</v>
@@ -4224,13 +4149,13 @@
         <v>326</v>
       </c>
       <c r="G95" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>327</v>
@@ -4254,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>132</v>
@@ -4263,28 +4188,28 @@
         <v>326</v>
       </c>
       <c r="G96" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>327</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L96" s="1">
-        <v>0</v>
+        <v>337</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4293,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>132</v>
@@ -4302,10 +4227,10 @@
         <v>326</v>
       </c>
       <c r="G97" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>327</v>
@@ -4316,11 +4241,11 @@
       <c r="K97" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L97" s="1">
-        <v>3</v>
+      <c r="L97" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4332,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>132</v>
@@ -4341,10 +4266,10 @@
         <v>326</v>
       </c>
       <c r="G98" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>327</v>
@@ -4355,11 +4280,11 @@
       <c r="K98" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L98" s="1">
-        <v>5</v>
+      <c r="L98" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4371,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>169</v>
+        <v>346</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>132</v>
@@ -4380,13 +4305,13 @@
         <v>326</v>
       </c>
       <c r="G99" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>327</v>
@@ -4398,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4410,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>132</v>
@@ -4419,13 +4344,13 @@
         <v>326</v>
       </c>
       <c r="G100" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>327</v>
@@ -4449,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>132</v>
@@ -4458,10 +4383,10 @@
         <v>326</v>
       </c>
       <c r="G101" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>327</v>
@@ -4473,10 +4398,10 @@
         <v>328</v>
       </c>
       <c r="L101" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4488,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>132</v>
@@ -4497,10 +4422,10 @@
         <v>326</v>
       </c>
       <c r="G102" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>327</v>
@@ -4512,10 +4437,10 @@
         <v>328</v>
       </c>
       <c r="L102" s="1">
-        <v>0</v>
-      </c>
-      <c r="M102" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4527,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>132</v>
@@ -4536,10 +4461,10 @@
         <v>326</v>
       </c>
       <c r="G103" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>327</v>
@@ -4551,10 +4476,10 @@
         <v>328</v>
       </c>
       <c r="L103" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4566,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>132</v>
@@ -4575,7 +4500,7 @@
         <v>326</v>
       </c>
       <c r="G104" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>328</v>
@@ -4593,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>183</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4605,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>132</v>
@@ -4614,10 +4539,10 @@
         <v>326</v>
       </c>
       <c r="G105" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>327</v>
@@ -4644,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>132</v>
@@ -4653,10 +4578,10 @@
         <v>326</v>
       </c>
       <c r="G106" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>327</v>
@@ -4670,8 +4595,8 @@
       <c r="L106" s="1">
         <v>0</v>
       </c>
-      <c r="M106" s="1" t="s">
-        <v>328</v>
+      <c r="M106" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4683,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>132</v>
@@ -4692,10 +4617,10 @@
         <v>326</v>
       </c>
       <c r="G107" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>327</v>
@@ -4707,10 +4632,10 @@
         <v>328</v>
       </c>
       <c r="L107" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4722,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>132</v>
@@ -4731,7 +4656,7 @@
         <v>326</v>
       </c>
       <c r="G108" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>328</v>
@@ -4749,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>331</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4761,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>132</v>
@@ -4770,13 +4695,13 @@
         <v>326</v>
       </c>
       <c r="G109" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>349</v>
+        <v>207</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>327</v>
@@ -4788,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4800,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>132</v>
@@ -4809,10 +4734,10 @@
         <v>326</v>
       </c>
       <c r="G110" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>327</v>
@@ -4827,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4839,25 +4764,25 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G111" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>328</v>
@@ -4866,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4878,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>326</v>
@@ -4890,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>327</v>
@@ -4905,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4917,22 +4842,22 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G113" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>327</v>
@@ -4956,16 +4881,16 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G114" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>328</v>
@@ -4995,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>313</v>
@@ -5004,16 +4929,16 @@
         <v>326</v>
       </c>
       <c r="G115" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>328</v>
@@ -5022,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5034,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>313</v>
@@ -5043,10 +4968,10 @@
         <v>326</v>
       </c>
       <c r="G116" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>327</v>
@@ -5073,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>313</v>
@@ -5082,10 +5007,10 @@
         <v>326</v>
       </c>
       <c r="G117" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>328</v>
+        <v>184</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>327</v>
@@ -5100,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5112,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>313</v>
@@ -5121,7 +5046,7 @@
         <v>326</v>
       </c>
       <c r="G118" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>328</v>
@@ -5133,13 +5058,13 @@
         <v>327</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="L118" s="1">
         <v>0</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5151,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>313</v>
@@ -5160,10 +5085,10 @@
         <v>326</v>
       </c>
       <c r="G119" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>327</v>
@@ -5178,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5190,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>313</v>
@@ -5199,10 +5124,10 @@
         <v>326</v>
       </c>
       <c r="G120" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>327</v>
@@ -5217,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5229,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>313</v>
@@ -5238,13 +5163,13 @@
         <v>326</v>
       </c>
       <c r="G121" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>327</v>
@@ -5256,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5268,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>313</v>
@@ -5277,7 +5202,7 @@
         <v>326</v>
       </c>
       <c r="G122" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>328</v>
@@ -5289,13 +5214,13 @@
         <v>327</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="L122" s="1">
         <v>0</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>331</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5307,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>313</v>
@@ -5316,7 +5241,7 @@
         <v>326</v>
       </c>
       <c r="G123" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>328</v>
@@ -5346,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>313</v>
@@ -5355,10 +5280,10 @@
         <v>326</v>
       </c>
       <c r="G124" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>327</v>
@@ -5373,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5385,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>313</v>
@@ -5394,16 +5319,16 @@
         <v>326</v>
       </c>
       <c r="G125" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>328</v>
@@ -5424,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>313</v>
@@ -5433,10 +5358,10 @@
         <v>326</v>
       </c>
       <c r="G126" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>327</v>
@@ -5451,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5463,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>313</v>
@@ -5472,13 +5397,13 @@
         <v>326</v>
       </c>
       <c r="G127" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>327</v>
@@ -5487,10 +5412,10 @@
         <v>328</v>
       </c>
       <c r="L127" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5502,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>313</v>
@@ -5511,10 +5436,10 @@
         <v>326</v>
       </c>
       <c r="G128" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>327</v>
@@ -5529,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5541,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>313</v>
@@ -5550,16 +5475,16 @@
         <v>326</v>
       </c>
       <c r="G129" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>328</v>
@@ -5568,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5580,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>313</v>
@@ -5589,10 +5514,10 @@
         <v>326</v>
       </c>
       <c r="G130" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>355</v>
+        <v>265</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>327</v>
@@ -5619,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>313</v>
@@ -5628,13 +5553,13 @@
         <v>326</v>
       </c>
       <c r="G131" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>354</v>
+        <v>222</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>327</v>
@@ -5643,7 +5568,7 @@
         <v>328</v>
       </c>
       <c r="L131" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>328</v>
@@ -5658,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>313</v>
@@ -5667,16 +5592,16 @@
         <v>326</v>
       </c>
       <c r="G132" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>328</v>
@@ -5697,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>313</v>
@@ -5706,10 +5631,10 @@
         <v>326</v>
       </c>
       <c r="G133" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>327</v>
@@ -5736,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>313</v>
@@ -5745,10 +5670,10 @@
         <v>326</v>
       </c>
       <c r="G134" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>327</v>
@@ -5775,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>313</v>
@@ -5784,10 +5709,10 @@
         <v>326</v>
       </c>
       <c r="G135" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>207</v>
+        <v>354</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>327</v>
@@ -5814,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>313</v>
@@ -5823,16 +5748,16 @@
         <v>326</v>
       </c>
       <c r="G136" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>55</v>
+        <v>353</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>328</v>
@@ -5853,22 +5778,22 @@
         <v>0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G137" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>327</v>
@@ -5883,7 +5808,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5892,19 +5817,19 @@
         <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H138" s="1">
-        <v>7</v>
+      <c r="G138" s="1">
+        <v>2</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>327</v>
@@ -5931,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>313</v>
@@ -5940,10 +5865,10 @@
         <v>326</v>
       </c>
       <c r="G139" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>327</v>
@@ -5970,16 +5895,34 @@
         <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>363</v>
+        <v>326</v>
+      </c>
+      <c r="G140" s="1">
+        <v>6</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L140" s="1">
+        <v>0</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5991,16 +5934,37 @@
         <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G141" s="1">
+        <v>9</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -6009,16 +5973,34 @@
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>364</v>
+        <v>326</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H142" s="1">
+        <v>7</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L142" s="1">
+        <v>0</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6030,16 +6012,34 @@
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>61</v>
+        <v>268</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>18</v>
+        <v>313</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>362</v>
+        <v>326</v>
+      </c>
+      <c r="G143" s="1">
+        <v>5</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L143" s="1">
+        <v>0</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6051,16 +6051,16 @@
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6135,16 +6135,16 @@
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>334</v>
+        <v>47</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6156,16 +6156,16 @@
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6177,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>363</v>
@@ -6198,13 +6198,16 @@
         <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E151" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F151" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6216,19 +6219,19 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -6237,19 +6240,19 @@
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -6258,16 +6261,16 @@
         <v>0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6279,19 +6282,19 @@
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -6300,16 +6303,16 @@
         <v>0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6321,16 +6324,16 @@
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6342,13 +6345,13 @@
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>363</v>
@@ -6363,19 +6366,19 @@
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -6384,16 +6387,16 @@
         <v>0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6405,19 +6408,19 @@
         <v>0</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -6426,19 +6429,19 @@
         <v>0</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -6447,19 +6450,19 @@
         <v>0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -6468,16 +6471,16 @@
         <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>87</v>
+        <v>280</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6489,19 +6492,19 @@
         <v>0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -6510,19 +6513,19 @@
         <v>0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -6531,19 +6534,19 @@
         <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -6552,16 +6555,16 @@
         <v>0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6573,16 +6576,19 @@
         <v>0</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E169" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F169" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -6591,13 +6597,13 @@
         <v>0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>364</v>
@@ -6612,19 +6618,19 @@
         <v>0</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -6633,16 +6639,16 @@
         <v>0</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6654,13 +6660,16 @@
         <v>0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E173" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F173" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6672,13 +6681,16 @@
         <v>0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6690,19 +6702,19 @@
         <v>0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -6711,16 +6723,16 @@
         <v>0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6732,16 +6744,19 @@
         <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E177" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F177" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -6750,16 +6765,19 @@
         <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E178" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="F178" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6768,16 +6786,16 @@
         <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6789,19 +6807,19 @@
         <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6810,16 +6828,16 @@
         <v>0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6831,19 +6849,19 @@
         <v>0</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6852,16 +6870,19 @@
         <v>0</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E183" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="F183" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6870,13 +6891,16 @@
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E184" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F184" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6888,19 +6912,19 @@
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6909,19 +6933,19 @@
         <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6930,16 +6954,16 @@
         <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6951,19 +6975,19 @@
         <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6972,19 +6996,19 @@
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6993,19 +7017,19 @@
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -7014,16 +7038,19 @@
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -7032,19 +7059,19 @@
         <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -7053,19 +7080,19 @@
         <v>0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -7074,16 +7101,13 @@
         <v>0</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7095,16 +7119,16 @@
         <v>0</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7116,10 +7140,13 @@
         <v>0</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>362</v>
@@ -7134,16 +7161,19 @@
         <v>0</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -7152,16 +7182,16 @@
         <v>0</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7173,19 +7203,16 @@
         <v>0</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>223</v>
+        <v>2</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -7194,16 +7221,16 @@
         <v>0</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7215,19 +7242,19 @@
         <v>0</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -7236,10 +7263,13 @@
         <v>0</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>362</v>
@@ -7254,19 +7284,19 @@
         <v>0</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -7275,19 +7305,19 @@
         <v>0</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -7296,19 +7326,16 @@
         <v>0</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>242</v>
+        <v>2</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -7317,16 +7344,13 @@
         <v>0</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>244</v>
+        <v>2</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7338,19 +7362,16 @@
         <v>0</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -7359,10 +7380,13 @@
         <v>0</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>362</v>
@@ -7377,16 +7401,13 @@
         <v>0</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7398,16 +7419,13 @@
         <v>0</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7419,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -7440,16 +7458,16 @@
         <v>0</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7461,16 +7479,13 @@
         <v>0</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7482,19 +7497,19 @@
         <v>0</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -7503,16 +7518,16 @@
         <v>0</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7524,13 +7539,10 @@
         <v>0</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>362</v>
@@ -7545,16 +7557,13 @@
         <v>0</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7566,16 +7575,13 @@
         <v>0</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7587,16 +7593,16 @@
         <v>0</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7608,13 +7614,10 @@
         <v>0</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>362</v>
@@ -7629,19 +7632,16 @@
         <v>0</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="F221" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -7650,16 +7650,16 @@
         <v>0</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7671,13 +7671,13 @@
         <v>0</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>362</v>
@@ -7692,16 +7692,16 @@
         <v>0</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7744,8 +7744,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M226">
-    <sortCondition ref="F1"/>
+  <sortState ref="A2:M227">
+    <sortCondition ref="F134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/projecting/cards_doors.xlsx
+++ b/projecting/cards_doors.xlsx
@@ -1474,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1586,7 +1586,7 @@
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1604,7 +1604,7 @@
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1622,167 +1622,164 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>297</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>299</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>270</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>271</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
@@ -1793,89 +1790,98 @@
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>2</v>
@@ -1884,55 +1890,55 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
@@ -1941,568 +1947,1108 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G28" s="1">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G32" s="1">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G33" s="1">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G34" s="1">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G37" s="1">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G38" s="1">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
+        <f>A40+1</f>
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G41" s="1">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
+        <f>A41+1</f>
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
+        <f>A42+1</f>
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>262</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
+        <f>A43+1</f>
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
+        <f>A44+1</f>
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
+        <f>A45+1</f>
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G46" s="1">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
+        <f>A46+1</f>
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
+        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>305</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
+      </c>
+      <c r="G48" s="1">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
+        <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
+      </c>
+      <c r="G49" s="1">
+        <v>6</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
+        <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
+      </c>
+      <c r="G50" s="1">
+        <v>18</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
+        <f>A50+1</f>
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
+        <f>A51+1</f>
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
+      </c>
+      <c r="G52" s="1">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
+        <f>A52+1</f>
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>2</v>
@@ -2511,10 +3057,10 @@
         <v>326</v>
       </c>
       <c r="G53" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>327</v>
@@ -2529,19 +3075,19 @@
         <v>0</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>328</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <f t="shared" si="0"/>
+        <f>A53+1</f>
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>2</v>
@@ -2550,10 +3096,10 @@
         <v>326</v>
       </c>
       <c r="G54" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>327</v>
@@ -2568,19 +3114,19 @@
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <f t="shared" si="0"/>
+        <f>A54+1</f>
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>2</v>
@@ -2589,13 +3135,13 @@
         <v>326</v>
       </c>
       <c r="G55" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>327</v>
@@ -2604,7 +3150,7 @@
         <v>328</v>
       </c>
       <c r="L55" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>331</v>
@@ -2612,14 +3158,14 @@
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f t="shared" si="0"/>
+        <f>A55+1</f>
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>2</v>
@@ -2628,13 +3174,13 @@
         <v>326</v>
       </c>
       <c r="G56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>327</v>
@@ -2651,14 +3197,14 @@
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f t="shared" si="0"/>
+        <f>A56+1</f>
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>2</v>
@@ -2667,10 +3213,10 @@
         <v>326</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>327</v>
@@ -2685,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f t="shared" si="0"/>
+        <f>A57+1</f>
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2</v>
@@ -2706,7 +3252,7 @@
         <v>326</v>
       </c>
       <c r="G58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>328</v>
@@ -2729,14 +3275,14 @@
     </row>
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f t="shared" si="0"/>
+        <f>A58+1</f>
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>2</v>
@@ -2745,37 +3291,37 @@
         <v>326</v>
       </c>
       <c r="G59" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>327</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L59" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f t="shared" si="0"/>
+        <f>A59+1</f>
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>2</v>
@@ -2784,7 +3330,7 @@
         <v>326</v>
       </c>
       <c r="G60" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>328</v>
@@ -2799,7 +3345,7 @@
         <v>328</v>
       </c>
       <c r="L60" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>328</v>
@@ -2807,14 +3353,14 @@
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f t="shared" si="0"/>
+        <f>A60+1</f>
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>2</v>
@@ -2823,7 +3369,7 @@
         <v>326</v>
       </c>
       <c r="G61" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>328</v>
@@ -2832,28 +3378,28 @@
         <v>327</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L61" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f t="shared" si="0"/>
+        <f>A61+1</f>
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>2</v>
@@ -2862,10 +3408,10 @@
         <v>326</v>
       </c>
       <c r="G62" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>327</v>
@@ -2885,1847 +3431,956 @@
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f t="shared" si="0"/>
+        <f>A62+1</f>
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F63" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G63" s="1">
-        <v>2</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L63" s="1">
-        <v>0</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f t="shared" si="0"/>
+        <f>A63+1</f>
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F64" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G64" s="1">
-        <v>12</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <f t="shared" si="0"/>
+        <f>A64+1</f>
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F65" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G65" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <f>A65+1</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <f>A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <f>A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <f>A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <f>A69+1</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <f>A70+1</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <f>A71+1</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <f>A72+1</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <f>A73+1</f>
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <f>A74+1</f>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <f>A75+1</f>
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <f>A76+1</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <f>A77+1</f>
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <f>A78+1</f>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <f>A79+1</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <f>A80+1</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <f>A81+1</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <f>A82+1</f>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <f>A83+1</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G66" s="1">
-        <v>10</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L66" s="1">
-        <v>0</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G67" s="1">
-        <v>8</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L67" s="1">
-        <v>0</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <f t="shared" ref="A68:A131" si="1">A67+1</f>
-        <v>67</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G68" s="1">
-        <v>14</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G69" s="1">
-        <v>4</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L69" s="1">
-        <v>0</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G70" s="1">
-        <v>2</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L70" s="1">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L71" s="1">
-        <v>0</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G72" s="1">
-        <v>2</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L72" s="1">
-        <v>0</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G73" s="1">
-        <v>8</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L73" s="1">
-        <v>0</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
+      <c r="D84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <f>A84+1</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <f>A85+1</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <f>A86+1</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <f>A87+1</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <f>A88+1</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <f>A89+1</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <f>A90+1</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <f>A91+1</f>
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <f>A92+1</f>
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L74" s="1">
-        <v>0</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
+      <c r="D93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G75" s="1">
-        <v>14</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L75" s="1">
-        <v>0</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G76" s="1">
-        <v>6</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G77" s="1">
-        <v>18</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L77" s="1">
-        <v>4</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G78" s="1">
-        <v>1</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L78" s="1">
-        <v>0</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G79" s="1">
-        <v>8</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L79" s="1">
-        <v>0</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G80" s="1">
-        <v>12</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L80" s="1">
-        <v>0</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G81" s="1">
-        <v>1</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L81" s="1">
-        <v>0</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
+      <c r="F93" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <f>A93+1</f>
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G82" s="1">
-        <v>10</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L82" s="1">
-        <v>0</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
+      <c r="D94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G83" s="1">
-        <v>5</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L83" s="1">
-        <v>0</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G84" s="1">
-        <v>2</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G85" s="1">
-        <v>4</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L85" s="1">
-        <v>0</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G86" s="1">
-        <v>16</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L86" s="1">
-        <v>4</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G87" s="1">
-        <v>20</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L87" s="1">
-        <v>6</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G88" s="1">
-        <v>18</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L88" s="1">
-        <v>5</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G89" s="1">
-        <v>12</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L89" s="1">
-        <v>0</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G90" s="1">
-        <v>15</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L90" s="1">
-        <v>3</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G91" s="1">
-        <v>3</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L91" s="1">
-        <v>0</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G92" s="1">
-        <v>9</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L92" s="1">
-        <v>0</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G93" s="1">
-        <v>5</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L93" s="1">
-        <v>0</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="F94" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G94" s="1">
-        <v>7</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L94" s="1">
-        <v>0</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <f t="shared" si="1"/>
+        <f>A94+1</f>
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G95" s="1">
-        <v>13</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L95" s="1">
-        <v>0</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <f t="shared" si="1"/>
+        <f>A95+1</f>
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G96" s="1">
-        <v>3</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <f t="shared" si="1"/>
+        <f>A96+1</f>
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G97" s="1">
-        <v>13</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <f t="shared" si="1"/>
+        <f>A97+1</f>
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G98" s="1">
-        <v>3</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <f t="shared" si="1"/>
+        <f>A98+1</f>
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G99" s="1">
-        <v>5</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L99" s="1">
-        <v>0</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <f t="shared" si="1"/>
+        <f>A99+1</f>
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="F100" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G100" s="1">
-        <v>11</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L100" s="1">
-        <v>0</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <f t="shared" si="1"/>
+        <f>A100+1</f>
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E101" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="F101" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G101" s="1">
-        <v>11</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L101" s="1">
-        <v>3</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <f t="shared" si="1"/>
+        <f>A101+1</f>
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G102" s="1">
-        <v>17</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L102" s="1">
-        <v>5</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <f t="shared" si="1"/>
+        <f>A102+1</f>
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G103" s="1">
-        <v>17</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L103" s="1">
-        <v>0</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <f t="shared" si="1"/>
+        <f>A103+1</f>
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G104" s="1">
-        <v>5</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L104" s="1">
-        <v>0</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <f t="shared" si="1"/>
+        <f>A104+1</f>
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G105" s="1">
-        <v>9</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L105" s="1">
-        <v>0</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <f t="shared" si="1"/>
+        <f>A105+1</f>
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G106" s="1">
-        <v>9</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L106" s="1">
-        <v>0</v>
-      </c>
-      <c r="M106" s="1">
-        <v>0</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <f t="shared" si="1"/>
+        <f>A106+1</f>
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G107" s="1">
-        <v>15</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L107" s="1">
-        <v>3</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <f t="shared" si="1"/>
+        <f>A107+1</f>
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G108" s="1">
-        <v>3</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L108" s="1">
-        <v>0</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>183</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <f t="shared" si="1"/>
+        <f>A108+1</f>
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G109" s="1">
-        <v>13</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L109" s="1">
-        <v>0</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <f t="shared" si="1"/>
+        <f>A109+1</f>
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>132</v>
@@ -4734,16 +4389,16 @@
         <v>326</v>
       </c>
       <c r="G110" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>328</v>
@@ -4752,19 +4407,19 @@
         <v>0</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <f t="shared" si="1"/>
+        <f>A110+1</f>
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>132</v>
@@ -4773,10 +4428,10 @@
         <v>326</v>
       </c>
       <c r="G111" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>327</v>
@@ -4796,14 +4451,14 @@
     </row>
     <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <f t="shared" si="1"/>
+        <f>A111+1</f>
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>132</v>
@@ -4812,10 +4467,10 @@
         <v>326</v>
       </c>
       <c r="G112" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>328</v>
+        <v>184</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>327</v>
@@ -4830,19 +4485,19 @@
         <v>0</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <f t="shared" si="1"/>
+        <f>A112+1</f>
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>132</v>
@@ -4851,13 +4506,13 @@
         <v>326</v>
       </c>
       <c r="G113" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>327</v>
@@ -4869,19 +4524,19 @@
         <v>0</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <f t="shared" si="1"/>
+        <f>A113+1</f>
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>132</v>
@@ -4893,7 +4548,7 @@
         <v>15</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>327</v>
@@ -4908,37 +4563,37 @@
         <v>0</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <f t="shared" si="1"/>
+        <f>A114+1</f>
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G115" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>328</v>
@@ -4947,31 +4602,31 @@
         <v>0</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <f t="shared" si="1"/>
+        <f>A115+1</f>
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G116" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>327</v>
@@ -4986,31 +4641,31 @@
         <v>0</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <f t="shared" si="1"/>
+        <f>A116+1</f>
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>327</v>
@@ -5019,34 +4674,34 @@
         <v>327</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="L117" s="1">
         <v>0</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>328</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <f t="shared" si="1"/>
+        <f>A117+1</f>
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G118" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>328</v>
@@ -5069,26 +4724,26 @@
     </row>
     <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <f t="shared" si="1"/>
+        <f>A118+1</f>
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G119" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>327</v>
@@ -5103,34 +4758,34 @@
         <v>0</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <f t="shared" si="1"/>
+        <f>A119+1</f>
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G120" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>327</v>
@@ -5142,28 +4797,28 @@
         <v>0</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <f t="shared" si="1"/>
+        <f>A120+1</f>
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G121" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>328</v>
@@ -5181,22 +4836,22 @@
         <v>0</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <f t="shared" si="1"/>
+        <f>A121+1</f>
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>326</v>
@@ -5214,37 +4869,37 @@
         <v>327</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="L122" s="1">
         <v>0</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <f t="shared" si="1"/>
+        <f>A122+1</f>
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G123" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>327</v>
@@ -5259,37 +4914,37 @@
         <v>0</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <f t="shared" si="1"/>
+        <f>A123+1</f>
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G124" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>328</v>
@@ -5303,29 +4958,29 @@
     </row>
     <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <f t="shared" si="1"/>
+        <f>A124+1</f>
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G125" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>327</v>
@@ -5337,34 +4992,34 @@
         <v>0</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <f t="shared" si="1"/>
+        <f>A125+1</f>
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G126" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>327</v>
@@ -5373,34 +5028,34 @@
         <v>328</v>
       </c>
       <c r="L126" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <f t="shared" si="1"/>
+        <f>A126+1</f>
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G127" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>327</v>
@@ -5415,31 +5070,31 @@
         <v>0</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <f t="shared" si="1"/>
+        <f>A127+1</f>
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G128" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>327</v>
@@ -5454,37 +5109,37 @@
         <v>0</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <f t="shared" si="1"/>
+        <f>A128+1</f>
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G129" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>328</v>
@@ -5493,31 +5148,31 @@
         <v>0</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <f t="shared" si="1"/>
+        <f>A129+1</f>
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G130" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>327</v>
@@ -5537,38 +5192,38 @@
     </row>
     <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <f t="shared" si="1"/>
+        <f>A130+1</f>
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G131" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="I131" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J131" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J131" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="K131" s="1" t="s">
         <v>328</v>
       </c>
       <c r="L131" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>328</v>
@@ -5576,26 +5231,26 @@
     </row>
     <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <f t="shared" ref="A132:A195" si="2">A131+1</f>
+        <f>A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G132" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>327</v>
@@ -5615,26 +5270,26 @@
     </row>
     <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <f t="shared" si="2"/>
+        <f>A132+1</f>
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>327</v>
@@ -5654,26 +5309,26 @@
     </row>
     <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <f t="shared" si="2"/>
+        <f>A133+1</f>
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G134" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>355</v>
+        <v>207</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>327</v>
@@ -5693,26 +5348,26 @@
     </row>
     <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <f t="shared" si="2"/>
+        <f>A134+1</f>
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G135" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>354</v>
+        <v>55</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>327</v>
@@ -5732,32 +5387,32 @@
     </row>
     <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <f t="shared" si="2"/>
+        <f>A135+1</f>
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>326</v>
       </c>
       <c r="G136" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>353</v>
+        <v>236</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>327</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>328</v>
@@ -5771,293 +5426,167 @@
     </row>
     <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <f t="shared" si="2"/>
+        <f>A136+1</f>
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G137" s="1">
-        <v>5</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L137" s="1">
-        <v>0</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <f t="shared" si="2"/>
+        <f>A137+1</f>
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G138" s="1">
-        <v>2</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L138" s="1">
-        <v>0</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <f t="shared" si="2"/>
+        <f>A138+1</f>
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G139" s="1">
-        <v>19</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L139" s="1">
-        <v>0</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <f t="shared" si="2"/>
+        <f>A139+1</f>
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G140" s="1">
-        <v>6</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L140" s="1">
-        <v>0</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <f t="shared" si="2"/>
+        <f>A140+1</f>
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E141" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="F141" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G141" s="1">
-        <v>9</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L141" s="1">
-        <v>0</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <f t="shared" si="2"/>
+        <f>A141+1</f>
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E142" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="F142" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H142" s="1">
-        <v>7</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L142" s="1">
-        <v>0</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <f t="shared" si="2"/>
+        <f>A142+1</f>
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G143" s="1">
-        <v>5</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L143" s="1">
-        <v>0</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <f t="shared" si="2"/>
+        <f>A143+1</f>
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>363</v>
@@ -6065,20 +5594,20 @@
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <f t="shared" si="2"/>
+        <f>A144+1</f>
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>363</v>
@@ -6086,1463 +5615,1910 @@
     </row>
     <row r="146" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <f t="shared" si="2"/>
+        <f>A145+1</f>
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <f t="shared" si="2"/>
+        <f>A146+1</f>
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <f t="shared" si="2"/>
+        <f>A147+1</f>
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f t="shared" si="2"/>
+        <f>A148+1</f>
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <f t="shared" si="2"/>
+        <f>A149+1</f>
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <f t="shared" si="2"/>
+        <f>A150+1</f>
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <f t="shared" si="2"/>
+        <f>A151+1</f>
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>88</v>
+        <v>276</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <f t="shared" si="2"/>
+        <f>A152+1</f>
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <f t="shared" si="2"/>
+        <f>A153+1</f>
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <f t="shared" si="2"/>
+        <f>A154+1</f>
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <f t="shared" si="2"/>
+        <f>A155+1</f>
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="F156" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <f t="shared" si="2"/>
+        <f>A156+1</f>
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="F157" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <f t="shared" si="2"/>
+        <f>A157+1</f>
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <f t="shared" si="2"/>
+        <f>A158+1</f>
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f t="shared" si="2"/>
+        <f>A159+1</f>
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A161:A224" si="0">A160+1</f>
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>161</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="F163" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="F165" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="F166" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>49</v>
+        <v>340</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>175</v>
+        <v>313</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G179" s="1">
+        <v>15</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L179" s="1">
+        <v>3</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G180" s="1">
+        <v>3</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L180" s="1">
+        <v>0</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G181" s="1">
+        <v>9</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L181" s="1">
+        <v>0</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G182" s="1">
+        <v>5</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L182" s="1">
+        <v>0</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G183" s="1">
+        <v>7</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L183" s="1">
+        <v>0</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G184" s="1">
+        <v>13</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L184" s="1">
+        <v>0</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <f t="shared" si="2"/>
-        <v>179</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <f t="shared" si="2"/>
-        <v>181</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <f t="shared" si="2"/>
-        <v>182</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
       <c r="B185" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F185" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G185" s="1">
+        <v>3</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="F186" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G186" s="1">
+        <v>13</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F187" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G187" s="1">
+        <v>3</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="F188" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G188" s="1">
+        <v>5</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L188" s="1">
+        <v>0</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F189" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G189" s="1">
+        <v>11</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L189" s="1">
+        <v>0</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F190" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G190" s="1">
+        <v>11</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L190" s="1">
+        <v>3</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="F191" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G191" s="1">
+        <v>17</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L191" s="1">
+        <v>5</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F192" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G192" s="1">
+        <v>17</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L192" s="1">
+        <v>0</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F193" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G193" s="1">
+        <v>5</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L193" s="1">
+        <v>0</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G194" s="1">
+        <v>9</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L194" s="1">
+        <v>0</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G195" s="1">
+        <v>9</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L195" s="1">
+        <v>0</v>
+      </c>
+      <c r="M195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G196" s="1">
+        <v>15</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L196" s="1">
+        <v>3</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G197" s="1">
+        <v>3</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L197" s="1">
+        <v>0</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G198" s="1">
+        <v>13</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L198" s="1">
+        <v>0</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G199" s="1">
+        <v>7</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L199" s="1">
+        <v>0</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G200" s="1">
+        <v>5</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L200" s="1">
+        <v>0</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G201" s="1">
+        <v>7</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L201" s="1">
+        <v>0</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G202" s="1">
+        <v>11</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L202" s="1">
+        <v>0</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G203" s="1">
+        <v>15</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L203" s="1">
+        <v>0</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G204" s="1">
+        <v>9</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L204" s="1">
+        <v>0</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H205" s="1">
+        <v>7</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L205" s="1">
+        <v>0</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <f t="shared" si="2"/>
-        <v>193</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <f t="shared" si="2"/>
-        <v>194</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <f t="shared" ref="A196:A226" si="3">A195+1</f>
-        <v>195</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <f t="shared" si="3"/>
-        <v>196</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <f t="shared" si="3"/>
-        <v>197</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <f t="shared" si="3"/>
-        <v>198</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <f t="shared" si="3"/>
-        <v>199</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <f t="shared" si="3"/>
-        <v>201</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <f t="shared" si="3"/>
-        <v>202</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <f t="shared" si="3"/>
-        <v>203</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <f t="shared" si="3"/>
-        <v>204</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <f t="shared" si="3"/>
-        <v>206</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <f t="shared" si="3"/>
-        <v>207</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>362</v>
@@ -7550,35 +7526,38 @@
     </row>
     <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>132</v>
+        <v>313</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>362</v>
@@ -7586,35 +7565,32 @@
     </row>
     <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="F219" s="1" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>313</v>
@@ -7625,38 +7601,41 @@
     </row>
     <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="E221" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F221" s="1" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>362</v>
@@ -7664,88 +7643,121 @@
     </row>
     <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>292</v>
+        <v>171</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F223" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>304</v>
+        <v>173</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A225:A228" si="1">A224+1</f>
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="E225" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F225" s="1" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="F226" s="1" t="s">
         <v>362</v>
       </c>
     </row>
+    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:M227">
-    <sortCondition ref="F134"/>
+  <sortState ref="F163:F228">
+    <sortCondition ref="F163"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/projecting/cards_doors.xlsx
+++ b/projecting/cards_doors.xlsx
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
